--- a/results.xlsx
+++ b/results.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,60 +491,60 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Laravel Website Developer (Project-Based)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Mineral Circles Bearings</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Previous working experience as a PHP / Laravel developer for more than 3 year(s).
+In-depth knowledge of object-oriented PHP and Laravel 5 PHP Framework.</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=8211d6fcfb2e44df&amp;fccid=9f7f0cdd429ec35e&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>Senior PHP Developer - Laravel / MySQL</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Prognica Labs</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Should have experience in language like PHP.
 Hands-on experience on MVC Framework Laravel.
 Having experience on AngularJS / ReactJS will be a plus point.</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Laravel Website Developer (Project-Based)</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Mineral Circles Bearings</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Previous working experience as a PHP / Laravel developer for more than 3 year(s).
-In-depth knowledge of object-oriented PHP and Laravel 5 PHP Framework.</t>
-        </is>
-      </c>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
@@ -553,108 +553,108 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=8211d6fcfb2e44df&amp;fccid=9f7f0cdd429ec35e&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>NAFFCO</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Web developer responsibilities includes building website from concept all the way to completion from the bottom up, styling everything from the home page to…</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=cf4eeeea9e88ca14&amp;fccid=15df2127cfcdbdf9&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>ipix solutions</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .
+JS,Node .JS,Vue JS, Jquerry,AJAX , Responsive front end frameworks(e.g Bootstrap),…</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Back-end Developer</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>TenTwenty</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>A sound understanding of front end web technologies as well.
 Eager to learn, discuss and share knowledge with our development team.</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr"/>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>NAFFCO</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Web developer responsibilities includes building website from concept all the way to completion from the bottom up, styling everything from the home page to…</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=cf4eeeea9e88ca14&amp;fccid=15df2127cfcdbdf9&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>ipix solutions</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .
-JS,Node .JS,Vue JS, Jquerry,AJAX , Responsive front end frameworks(e.g Bootstrap),…</t>
-        </is>
-      </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Web Development Manager</t>
+          <t>Drupal/Wordpress PHP Developer</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Consult Arabia</t>
+          <t>Group Three IT Consultants</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -711,7 +711,8 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>We are currently seeking an experienced and talented Web Development Manager to be responsible for leading a complex web development project.</t>
+          <t>Group Three IT Consultants is seeking an experienced Web developer who'll build Websites, SPAs, and Web Applications.
+Fix bugs and issues on existing sites.</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
@@ -722,7 +723,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=f78a3a700cd7dae5&amp;fccid=fa2514c2c0ccf564&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
         </is>
       </c>
     </row>
@@ -763,12 +764,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Drupal/Wordpress PHP Developer</t>
+          <t>Web Development Manager</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Group Three IT Consultants</t>
+          <t>Consult Arabia</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -778,8 +779,7 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Group Three IT Consultants is seeking an experienced Web developer who'll build Websites, SPAs, and Web Applications.
-Fix bugs and issues on existing sites.</t>
+          <t>We are currently seeking an experienced and talented Web Development Manager to be responsible for leading a complex web development project.</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
@@ -790,7 +790,7 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=f78a3a700cd7dae5&amp;fccid=fa2514c2c0ccf564&amp;vjs=3</t>
         </is>
       </c>
     </row>
@@ -899,12 +899,12 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Senior PHP Web Developer [Laravel]</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Cactimedia</t>
+          <t>NAAS Digital</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -914,51 +914,52 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>We are looking for a PHP Developer responsible for managing back-end &amp; Front-end services and the interchange of data between the server and the users.</t>
+          <t>Responsible for the development of original code and/or making enhancements to existing code based on verbal or documented requirements and design…</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>9 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Cactimedia/jobs/Senior-PHP-Web-Developer-beffb12045e315c6?fccid=65e531aba20d0814&amp;vjs=3</t>
+          <t>https://ae.indeed.com/company/Naas-Digital/jobs/Web-Developer-2cf365d7374aa732?fccid=d19e60b16879dc68&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Program Manager</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Al Hoor Commodities and Product Commercial Broker...</t>
+          <t>Promate Technologies</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Dubai Free Zone</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>You will be tasked with developing programs to support the organization's strategic direction, as well as creating and managing long term goals.</t>
+          <t>Design, development, testing, and debugging of responsive web and mobile applications.
+Build efficient and reusable front-end systems that drive interactive web…</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>Just posted</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/ALHOOR-Commodities-and-Product-Commercial-Broker-LLC/jobs/Program-Manager-aab0ec3681d3ca66?fccid=e643962bb67e1be3&amp;vjs=3</t>
+          <t>https://ae.indeed.com/company/Promate-Technologies/jobs/Full-Stack-Web-Developer-a05363a99cd2c17f?fccid=795f12bdc0b9f89f&amp;vjs=3</t>
         </is>
       </c>
     </row>
@@ -970,7 +971,7 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>CENTURY FINANCIAL</t>
+          <t>AIX Investment Group</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -980,30 +981,31 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>The prime responsibility of this front end developer will be to aid and support our marketing initiatives from a technical web development standpoint.</t>
+          <t>Identifying user and system requirements for new websites and applications.
+Prioritizing software development projects, setting timelines.</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/CENTURY-FINANCIAL/jobs/Web-Developer-dc2c7fae07519e0d?fccid=bcbae8ac47184d2d&amp;vjs=3</t>
+          <t>https://ae.indeed.com/company/AIX-Investment-Group/jobs/Web-Developer-3ffe17bd3cb633d0?fccid=d8f403bac26785d4&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Website Developer and CRM Programmer</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>AIX Investment Group</t>
+          <t>Smart FX</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -1013,31 +1015,30 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Identifying user and system requirements for new websites and applications.
-Prioritizing software development projects, setting timelines.</t>
+          <t>Responsible for the gathering of requirements, designing and implementing new features and building reusable and scalable code and libraries for future use.</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/AIX-Investment-Group/jobs/Web-Developer-3ffe17bd3cb633d0?fccid=d8f403bac26785d4&amp;vjs=3</t>
+          <t>https://ae.indeed.com/company/Smart-FX/jobs/Website-Developer-Crm-Programmer-1a74980084dd960e?fccid=8526b86b664e7510&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Senior Web Developer</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>NAAS Digital</t>
+          <t>SellAnyCar.com</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -1047,30 +1048,31 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Responsible for the development of original code and/or making enhancements to existing code based on verbal or documented requirements and design…</t>
+          <t>We are on agile and leverage JIRA Agile for project management.
+Participates in weekly and quarterly sprint planning &amp; provides estimates on all tasks.</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Naas-Digital/jobs/Web-Developer-2cf365d7374aa732?fccid=d19e60b16879dc68&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=bca1fc1f491de1d1&amp;fccid=4a24448e569ea51e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Digital Marketing Executive</t>
+          <t>Junior Full Stack Developer</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>PDTLLC</t>
+          <t>Saniservice</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -1079,736 +1081,226 @@
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>Job Types: Full-time, Contract.</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>10 days ago</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Pro-Dynamics-Technology-LLC/jobs/Digital-Marketing-Executive-21168b443d7767d7?fccid=9d93944f5e217bf9&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>VISION DENTAL CLINIC</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>ONLY APPLICANTS WITH RELATED EXPERIENCED ARE WELCOME.
-Conducting analysis of website and application requirements.
-Troubleshooting application and code issues.</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/VISION-DENTAL-CLINIC/jobs/PHP-Developer-e76b8c3abb71117a?fccid=ecbb17b5eae38c4e&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Laravel &amp; NodeJS Developer with experience in Javascript Frameworks</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Infuse</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>An expert in Laravel &amp; NodeJS, with experience on various Javascript Frameworks like React, Angular and Vue.
-English Language Proficiency is an absolute must.</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr"/>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>25 days ago</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Infuse/jobs/Laravel-Nodej-Developer-Experience-Javascript-Framework-7172a10be5f71ecc?fccid=708defa103a298cd&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Front End Developer</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>Grand Technology</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>BS/MS degree in Computer Science, Engineering or a related subject.
-At least 3-5 years of development experience, good debugging skills and comfortable to work…</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr"/>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>21 days ago</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Grand-Technology/jobs/Front-End-Developer-147c17f66cbf9f98?fccid=871778351f57c254&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Passionate Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Saniservice</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Laravel 8 - Solid understanding on how laravel works.
 Core competencies: (items in bold are a MUST)*.
 HTML5 - well versed on using HTML5 elements.</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>7 days ago</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/SaniService-LLC/jobs/Passionate-Full-Stack-Developer-bcc045f5fe4df822?fccid=af1138c3cb199177&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Project Manager (Software)</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Emicon Technology</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>The responsibilities of the software project manager include overseeing software development (web &amp; mobile app) projects from start to finish, managing and…</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr"/>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Shakil-M-Technologies/jobs/Project-Manager-990db7676dba7531?fccid=db3864c2f73cd40c&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>Begin Technology Solutions LLC</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>Designing user interactions on web pages.
-Developing back end website applications.
-Creating servers and databases for functionality.</t>
-        </is>
-      </c>
-      <c r="E25" s="1" t="inlineStr"/>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>21 days ago</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Nomad-Catering-LLC/jobs/Full-Stack-Web-Developer-cde7bebfa2cf307d?fccid=07bdfe64d89071b1&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Promate Technologies</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Dubai Free Zone</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>Design, development, testing, and debugging of responsive web and mobile applications.
-Build efficient and reusable front-end systems that drive interactive web…</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr"/>
-      <c r="F26" s="1" t="inlineStr">
-        <is>
-          <t>Just posted</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Promate-Technologies/jobs/Full-Stack-Web-Developer-a05363a99cd2c17f?fccid=795f12bdc0b9f89f&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>BACKEND DEVELOPER</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>BRISK ONLINE</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>Job Types: Full-time, Permanent.
-Personal protective equipment provided or required.</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr"/>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>28 days ago</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/QURTASS-GENERAL-TRADING/jobs/Backend-Developer-f9e0bf13dc3b0e2e?fccid=638fe8ba2f63486a&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Senior Back End PHP Developer</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Mandotech</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>Software Company located in Dubai is hiring a senior PHP developer with minimum 8 years’ experience in ERP development industry.</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr"/>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>24 days ago</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Mandotech/jobs/Senior-Back-End-PHP-Developer-706e196a3bf8f0ce?fccid=d827a45fba55828e&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Sr. PHP Developer</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>Rewind productions</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>Strong hand on php framework codeigniter and laravel.
-Write “clean”, well-designed code.
-Troubleshoot, test and maintain the core product software and databases…</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr"/>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>14 days ago</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Rewind-Production/jobs/Senior-PHP-Developer-af1d3318352b812a?fccid=a81d46adb10a4b46&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>PHP Codeigniter</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>KingRox Al Ain</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>String core PHP Hands on experience.
-Strong Expertise in CodeIgniter Framework .
-Good Knowledge of PHP5, MySQL, jQuery, Javascript, HTML5, CSS3, XML.</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr"/>
-      <c r="F30" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/KingRox-Al-Ain/jobs/PHP-Codeigniter-1900ad1e16b1707d?fccid=d62d5146336cf8f5&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Website Developer and CRM Programmer</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>Smart FX</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>Responsible for the gathering of requirements, designing and implementing new features and building reusable and scalable code and libraries for future use.</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr"/>
-      <c r="F31" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Smart-FX/jobs/Website-Developer-Crm-Programmer-1a74980084dd960e?fccid=8526b86b664e7510&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Senior Backend Developer (PHP)</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>Hello Chef</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>Reporting to the Engineering Manager, the ideal candidate will have strong experience in the development, testing, and implementation of new projects and…</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr"/>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=e1caa7a1be4e89ba&amp;fccid=b9b3338cc887306a&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Junior Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>Saniservice</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>Laravel 8 - Solid understanding on how laravel works.
-Core competencies: (items in bold are a MUST)*.
-HTML5 - well versed on using HTML5 elements.</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr"/>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="E19" s="1" t="inlineStr"/>
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>9 days ago</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/SaniService-LLC/jobs/Junior-Full-Stack-Developer-9d94987b35d77284?fccid=af1138c3cb199177&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Senior Web Developer</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>SellAnyCar.com</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>We are on agile and leverage JIRA Agile for project management.
-Participates in weekly and quarterly sprint planning &amp; provides estimates on all tasks.</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr"/>
-      <c r="F34" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=bca1fc1f491de1d1&amp;fccid=4a24448e569ea51e&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Back End Developer</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>VALTRANS TRANSPORTATION SYSTEMS &amp; SERVICES</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
         <is>
           <t>PHP Laravel 5.0 + minimum 3+ years of min experience.
 AWS (Route53, S3, SQS Queue, Code Deploy, EC2, Auto Scale Group, Network Configuration) min 1 year of…</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr"/>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="E20" s="1" t="inlineStr"/>
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/VALTRANS-TRANSPORTATION-SYSTEMS-&amp;-SERVICES/jobs/Back-End-Developer-ecf8424fb6e8fc72?fccid=755a4c1f11cb3405&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Web Developer</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Be Unique</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
         <is>
           <t>Must have experience with REST, API-driven development.
 Must have experience with web app frameworks like Flask or Django, Angular, Vuejs or React.</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr"/>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Be-Unique/jobs/Web-Developer-83c8aeda2db1afa3?fccid=12cd130a1470ff03&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>IT Web Developer- Dot Net</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Manlift Group</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
         <is>
           <t>Responsible for developing, testing, installing and supporting new and existing web applications.
 Develop and support various Manlift/ Riwal Web Applications.</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr"/>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Manlift-Group/jobs/IT-Web-Developer-b8d1ee1172592693?fccid=2243d44b95e82306&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Senior Web Developer expert in Wordpress and other CMS</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>DA STUDIO</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Expert in PHP (laravel framework) and MySQL.
 Full Stack senior Web developer with a minimum of 5 years of experience:
 Job Types: Full-time, Permanent.</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr"/>
-      <c r="F38" s="1" t="inlineStr">
-        <is>
-          <t>22 days ago</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr"/>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>23 days ago</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Roomco-DMCC/jobs/Senior-Web-Developer-Expert-Wordpress-Other-Cms-8ec769bbb0215b5d?fccid=901bfdb1d9ee6987&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Senior web developer - CMS</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>DA STUDIO</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>Expert in PHP (laravel framework) and MySQL.
 Full Stack senior Web developer with a minimum of 5 years of experience:
 Web Development: 4 years (Required).</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr"/>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="E24" s="1" t="inlineStr"/>
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>27 days ago</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Roomco-DMCC/jobs/Senior-Web-Developer-4860fd862fe1a83f?fccid=901bfdb1d9ee6987&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Senior Web Developer - Wordpress &amp; other CMS</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>DA STUDIO</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Expert in PHP (laravel framework) and MySQL.
 Full Stack senior Web developer with a minimum of 5 years of experience:
 Job Types: Full-time, Permanent.</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>16 days ago</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Roomco-DMCC/jobs/Senior-Web-Developer-794e77d27a676751?fccid=901bfdb1d9ee6987&amp;vjs=3</t>
         </is>

--- a/results.xlsx
+++ b/results.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,170 +491,145 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Laravel Website Developer (Project-Based)</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mineral Circles Bearings</t>
+          <t>Market Wagon</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Previous working experience as a PHP / Laravel developer for more than 3 year(s).
-In-depth knowledge of object-oriented PHP and Laravel 5 PHP Framework.</t>
-        </is>
-      </c>
+          <t>Indianapolis, IN</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=8211d6fcfb2e44df&amp;fccid=9f7f0cdd429ec35e&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/developer-at-market-wagon-2559205273?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=wGK7hqgTC6kr3aeGt2aHsw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Senior PHP Developer - Laravel / MySQL</t>
+          <t>Laravel Software Developer</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Prognica Labs</t>
+          <t>Alley</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Should have experience in language like PHP.
-Hands-on experience on MVC Framework Laravel.
-Having experience on AngularJS / ReactJS will be a plus point.</t>
-        </is>
-      </c>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-software-developer-at-alley-2564441682?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=0CdoyEigw4%2FXRwJO7umjag%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>PHP Developer (Laravel)</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>NAFFCO</t>
+          <t>HotSpaces.Net, providing Consulting &amp; Recruiting services since 1999</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Web developer responsibilities includes building website from concept all the way to completion from the bottom up, styling everything from the home page to…</t>
-        </is>
-      </c>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr"/>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=cf4eeeea9e88ca14&amp;fccid=15df2127cfcdbdf9&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-developer-laravel-at-hotspaces-net-providing-consulting-recruiting-services-since-1999-2544989200?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=dJntnaTwvmz%2Fi2LU%2FdmXgg%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Web Application Developer</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>ipix solutions</t>
+          <t>Car Keys Express</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .
-JS,Node .JS,Vue JS, Jquerry,AJAX , Responsive front end frameworks(e.g Bootstrap),…</t>
-        </is>
-      </c>
+          <t>Louisville, KY</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/web-application-developer-at-car-keys-express-2551267491?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=oqV4PakGffiZInSgJZ20GA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Back-end Developer</t>
+          <t>Junior PHP Developer</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>TenTwenty</t>
+          <t>Find Great People</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>A sound understanding of front end web technologies as well.
-Eager to learn, discuss and share knowledge with our development team.</t>
-        </is>
-      </c>
+          <t>Greenville, SC</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr"/>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/junior-php-developer-at-find-great-people-2549189382?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=V4S2ioFJ8GX9n6vlvxt%2B1Q%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
@@ -666,643 +641,364 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>28 LIGHTBULBS</t>
+          <t>Eliassen Group</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Integration of user-facing elements developed by front-end developers.
-Build efficient, testable, and reusable PHP modules.
-Good Knowledge of MySQL &amp; NoSQL.</t>
-        </is>
-      </c>
+          <t>Columbus, Ohio Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr"/>
       <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
+      <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=ba93b8dce75a73af&amp;fccid=c84d6205b9d4151d&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-developer-at-eliassen-group-2559489054?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=ldaEqXSX3WRA%2BF9oKwbQFA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Drupal/Wordpress PHP Developer</t>
+          <t>PHP / JS Developer</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Group Three IT Consultants</t>
+          <t>Dealer Inspire</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Group Three IT Consultants is seeking an experienced Web developer who'll build Websites, SPAs, and Web Applications.
-Fix bugs and issues on existing sites.</t>
-        </is>
-      </c>
+          <t>Remote, OR</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr"/>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-js-developer-at-dealer-inspire-2558459570?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=eEeYHrTxzYRj2zEfr0TcUQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>We are seeking a Full Stack Developer with SaaS experience.</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Scancruit</t>
+          <t>AutoPets</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Grow your skills and build features end-to-end, getting exposure to all layers of stack.
-Minimum 3-5 years of consumer facing application development experience…</t>
-        </is>
-      </c>
+          <t>Auburn Hills, MI</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=35380171cff2f957&amp;fccid=7021cc13a0d80157&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-developer-at-autopets-2561027870?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=5irh7vIWhFVb4lu25buJIw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Web Development Manager</t>
+          <t>PHP with Java</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Consult Arabia</t>
+          <t>ValueLabs</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>We are currently seeking an experienced and talented Web Development Manager to be responsible for leading a complex web development project.</t>
-        </is>
-      </c>
+          <t>San Francisco Bay Area</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr"/>
       <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
+      <c r="F10" s="1" t="inlineStr"/>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=f78a3a700cd7dae5&amp;fccid=fa2514c2c0ccf564&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-with-java-at-valuelabs-2555190539?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=gZZspUyoEpRtt5CCmotMvQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>PHP/Laravel Developer - Telecommute</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>28 LIGHTBULBS Technologies</t>
+          <t>Optum</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Dubai Silicon Oasis</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>We are looking for an experienced PHP/Laravel Developer *to manage back-end services and develop server side logic..
-Integration of data storage solutions.</t>
-        </is>
-      </c>
+          <t>Herndon, VA</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr"/>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/28-Lightbulbs/jobs/PHP-Developer-cf465551dcce76f2?fccid=c84d6205b9d4151d&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-laravel-developer-telecommute-at-optum-2548679962?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=JcveuNyCGgydKDFELTfeWw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Back-end Developer (PHP/Laravel/Node.JS/Python)</t>
+          <t>Developer Associate</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Resource Log LLC</t>
+          <t>Northwestern University</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>You should have minimum 4 to 8 years of experience as a Band end PHP developer.
-Integration of user-facing elements developed by front-end developers.</t>
-        </is>
-      </c>
+          <t>Evanston, IL</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr"/>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>15 days ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/Back-End-Developer-4b99383b3a27e02f?fccid=415cd241779a8615&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/developer-associate-at-northwestern-university-2550026326?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=TmSUPpi5Oaz2nNxEU0Xy7A%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Laravel Web Developer (Temporary Role)</t>
+          <t>Junior Developer - US (Remote)</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Mineral Circles Bearings</t>
+          <t>Pepper</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Previous working experience as a PHP / Laravel developer for more than 3 year(s).
-In-depth knowledge of object-oriented PHP and Laravel 5 PHP Framework.</t>
-        </is>
-      </c>
+          <t>Charlotte County, FL</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr"/>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Mineral-Circles-Bearings/jobs/Laravel-Web-Developer-bd309d88431c1b4a?fccid=9f7f0cdd429ec35e&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/junior-developer-us-remote-at-pepper-2562473695?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=lxS3eFGwvV%2B0ZlJ%2FE8YWYA%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Laravel PHP</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>NAAS Digital</t>
+          <t>RentQualifier</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>Responsible for the development of original code and/or making enhancements to existing code based on verbal or documented requirements and design…</t>
-        </is>
-      </c>
+          <t>California, United States</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr"/>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Naas-Digital/jobs/Web-Developer-2cf365d7374aa732?fccid=d19e60b16879dc68&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-php-at-rentqualifier-2528371901?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=Rn%2Futp4WHRn8YXDpQKLruA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Promate Technologies</t>
+          <t>Lexia Learning</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Dubai Free Zone</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>Design, development, testing, and debugging of responsive web and mobile applications.
-Build efficient and reusable front-end systems that drive interactive web…</t>
-        </is>
-      </c>
+          <t>Concord, MA</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr"/>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Promate-Technologies/jobs/Full-Stack-Web-Developer-a05363a99cd2c17f?fccid=795f12bdc0b9f89f&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/senior-software-engineer-at-lexia-learning-2544908239?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=HAWcGDTsXM0b2nVZghRj5A%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>AIX Investment Group</t>
+          <t>Lexia Learning</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>Identifying user and system requirements for new websites and applications.
-Prioritizing software development projects, setting timelines.</t>
-        </is>
-      </c>
+          <t>Concord, MA</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr"/>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/AIX-Investment-Group/jobs/Web-Developer-3ffe17bd3cb633d0?fccid=d8f403bac26785d4&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/senior-software-engineer-at-lexia-learning-2544907287?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=0iJHy4Q%2BKvzkUbxtnnOfXg%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Website Developer and CRM Programmer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Smart FX</t>
+          <t>Lexia Learning</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>Responsible for the gathering of requirements, designing and implementing new features and building reusable and scalable code and libraries for future use.</t>
-        </is>
-      </c>
+          <t>Concord, MA</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr"/>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Smart-FX/jobs/Website-Developer-Crm-Programmer-1a74980084dd960e?fccid=8526b86b664e7510&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/senior-software-engineer-at-lexia-learning-2544910089?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=0DtEyL%2Bz2PQLdrkpF63Org%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Senior Web Developer</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>SellAnyCar.com</t>
+          <t>Mosaic Learning</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>We are on agile and leverage JIRA Agile for project management.
-Participates in weekly and quarterly sprint planning &amp; provides estimates on all tasks.</t>
-        </is>
-      </c>
+          <t>Columbia, MD</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr"/>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=bca1fc1f491de1d1&amp;fccid=4a24448e569ea51e&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-developer-at-mosaic-learning-2543216556?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=oRUrxbyLz3tqsgL8nIU8dA%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Junior Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Saniservice</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>Laravel 8 - Solid understanding on how laravel works.
-Core competencies: (items in bold are a MUST)*.
-HTML5 - well versed on using HTML5 elements.</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>9 days ago</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/SaniService-LLC/jobs/Junior-Full-Stack-Developer-9d94987b35d77284?fccid=af1138c3cb199177&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Back End Developer</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>VALTRANS TRANSPORTATION SYSTEMS &amp; SERVICES</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>PHP Laravel 5.0 + minimum 3+ years of min experience.
-AWS (Route53, S3, SQS Queue, Code Deploy, EC2, Auto Scale Group, Network Configuration) min 1 year of…</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Addison Group</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>St Charles, IL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/VALTRANS-TRANSPORTATION-SYSTEMS-&amp;-SERVICES/jobs/Back-End-Developer-ecf8424fb6e8fc72?fccid=755a4c1f11cb3405&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Be Unique</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>Must have experience with REST, API-driven development.
-Must have experience with web app frameworks like Flask or Django, Angular, Vuejs or React.</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr"/>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Be-Unique/jobs/Web-Developer-83c8aeda2db1afa3?fccid=12cd130a1470ff03&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>IT Web Developer- Dot Net</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>Manlift Group</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>Responsible for developing, testing, installing and supporting new and existing web applications.
-Develop and support various Manlift/ Riwal Web Applications.</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr"/>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Manlift-Group/jobs/IT-Web-Developer-b8d1ee1172592693?fccid=2243d44b95e82306&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Senior Web Developer expert in Wordpress and other CMS</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>DA STUDIO</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>Expert in PHP (laravel framework) and MySQL.
-Full Stack senior Web developer with a minimum of 5 years of experience:
-Job Types: Full-time, Permanent.</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>23 days ago</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Roomco-DMCC/jobs/Senior-Web-Developer-Expert-Wordpress-Other-Cms-8ec769bbb0215b5d?fccid=901bfdb1d9ee6987&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Senior web developer - CMS</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>DA STUDIO</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>Expert in PHP (laravel framework) and MySQL.
-Full Stack senior Web developer with a minimum of 5 years of experience:
-Web Development: 4 years (Required).</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr"/>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>27 days ago</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Roomco-DMCC/jobs/Senior-Web-Developer-4860fd862fe1a83f?fccid=901bfdb1d9ee6987&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Senior Web Developer - Wordpress &amp; other CMS</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DA STUDIO</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Expert in PHP (laravel framework) and MySQL.
-Full Stack senior Web developer with a minimum of 5 years of experience:
-Job Types: Full-time, Permanent.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>16 days ago</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Roomco-DMCC/jobs/Senior-Web-Developer-794e77d27a676751?fccid=901bfdb1d9ee6987&amp;vjs=3</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/php-developer-at-addison-group-2558866167?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=HuP3%2Bd55%2BSEqKBBM%2BDcT2A%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PostDate</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Summary</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -491,514 +491,2025 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Administrator</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Market Wagon</t>
+          <t>Etihad Airways</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Indianapolis, IN</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr"/>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Ensure efficiency in operations by monitoring services rendered to identify financial status of department.
+Ensure overall responsibility for various accounting…</t>
+        </is>
+      </c>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/developer-at-market-wagon-2559205273?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=wGK7hqgTC6kr3aeGt2aHsw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=11316ce0f3841876&amp;fccid=343f7e5193f488ee&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Laravel Software Developer</t>
+          <t>Financial Analyst – Logistics</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Alley</t>
+          <t>Abu Dhabi Ports</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr"/>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Analyzing and reporting on financial performance.
+Overseeing audit and financial compliance functions.
+We are seeking an experienced and analytical Financial…</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-software-developer-at-alley-2564441682?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=0CdoyEigw4%2FXRwJO7umjag%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=4f1bf66510a3179f&amp;fccid=3013e3648b90f107&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PHP Developer (Laravel)</t>
+          <t>Administrator</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>HotSpaces.Net, providing Consulting &amp; Recruiting services since 1999</t>
+          <t>Deutsche Bank</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Full / Part time: Full time.
+Deutsche Bank's Private Bank corporate division combines the bank's expertise in private banking with Postbank in Germany and the…</t>
+        </is>
+      </c>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-developer-laravel-at-hotspaces-net-providing-consulting-recruiting-services-since-1999-2544989200?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=dJntnaTwvmz%2Fi2LU%2FdmXgg%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=48c7e19bc6b34653&amp;fccid=f1d8e147024abb3f&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Web Application Developer</t>
+          <t>FINANCIAL CONTROLLER</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Car Keys Express</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Louisville, KY</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Monthly Financial Review – comments with inputs from relevant departments and final review Head of Finance.
+Handling of queries from Region / HQ.</t>
+        </is>
+      </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>15 days ago</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/web-application-developer-at-car-keys-express-2551267491?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=oqV4PakGffiZInSgJZ20GA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=91df17800e27d4e7&amp;fccid=2f6f2e23480ffded&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Junior PHP Developer</t>
+          <t>Financial Controller</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Find Great People</t>
+          <t>Halian</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Greenville, SC</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Will be responsible for the preparation of local statutory financial statements.
+Responsible for month end and year-end financial analysis and will provide…</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-php-developer-at-find-great-people-2549189382?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=V4S2ioFJ8GX9n6vlvxt%2B1Q%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=95e8597717db359c&amp;fccid=36028905bb7e7da7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Financial Analyst Dubai Full Time Posted 1 week ago</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Eliassen Group</t>
+          <t>AirPro AE</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Columbus, Ohio Metropolitan Area</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>The Financial Analyst will be adopting a partner and challenger role when evaluating projects/budgets and Product Business Plans; actively managing the…</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-developer-at-eliassen-group-2559489054?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=ldaEqXSX3WRA%2BF9oKwbQFA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=a3186a348ef3b43b&amp;fccid=14775661365c22bd&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PHP / JS Developer</t>
+          <t>Mgr, Financial Planning &amp; Analysis, Allergan Aesthetics - Gulf</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Dealer Inspire</t>
+          <t>Abbvie</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Remote, OR</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Developing financial models and providing financial forecasts, Budget, Latest Estimates, Long Range Plans.
+Prepares consolidation journal entries, eliminates…</t>
+        </is>
+      </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-js-developer-at-dealer-inspire-2558459570?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=eEeYHrTxzYRj2zEfr0TcUQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=ef1d60de5a449e60&amp;fccid=a3b51ece17c02aae&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>AutoPets</t>
+          <t>Expo 2020</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Auburn Hills, MI</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>The Finance Department is responsible for managing all the financial aspects of EXPO 2020.
+The department functions include planning organizing, auditing,…</t>
+        </is>
+      </c>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-developer-at-autopets-2561027870?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=5irh7vIWhFVb4lu25buJIw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=e526086edf39c4cc&amp;fccid=2b3f1d0c0e1ed5c4&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PHP with Java</t>
+          <t>Administrator Hiring For Financial Area</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ValueLabs</t>
+          <t>ACTIKNOW</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>San Francisco Bay Area</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Prepare the production analysis and create the results reports for your direct manager.
+Supervise and retrain its personnel in charge on a regular basis to…</t>
+        </is>
+      </c>
       <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-with-java-at-valuelabs-2555190539?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=gZZspUyoEpRtt5CCmotMvQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=cbb4b501f01bb41b&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PHP/Laravel Developer - Telecommute</t>
+          <t>Specialist Customer Experience</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Optum</t>
+          <t>Talabat</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Herndon, VA</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Requires rigorous financial, analytical, and strategic mindset.
+Conduct data analysis in order to build financial models to support management in launching new…</t>
+        </is>
+      </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>Just posted</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-laravel-developer-telecommute-at-optum-2548679962?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=JcveuNyCGgydKDFELTfeWw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=ce2db140e78955b3&amp;fccid=8948005a95e365ae&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Developer Associate</t>
+          <t>Customer Service Representative - fixed-term</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Northwestern University</t>
+          <t>bp</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Evanston, IL</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>The scope of the role will influence the grade – this can include financial accountability, geographical scope, leadership responsibilities and overall level of…</t>
+        </is>
+      </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/developer-associate-at-northwestern-university-2550026326?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=TmSUPpi5Oaz2nNxEU0Xy7A%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=eaedbcf7ebd43563&amp;fccid=03cacc905f5db444&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Junior Developer - US (Remote)</t>
+          <t>Financial Accountant</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Pepper</t>
+          <t>Royal Camel Dairy Foodstuff</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Charlotte County, FL</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Examining financial records to check for accuracy.
+Gather and monitor financial data (e.g. revenues and liabilities).
+Manage tax payments as per UAE law.</t>
+        </is>
+      </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-developer-us-remote-at-pepper-2562473695?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=lxS3eFGwvV%2B0ZlJ%2FE8YWYA%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=b2abfdee2224da66&amp;fccid=eaec194d6d553c3f&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Laravel PHP</t>
+          <t>Financial Analyst Required For Designing Unit</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>RentQualifier</t>
+          <t>ACTIKNOW</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>California, United States</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Cooperation in the preparation of financial statements.
+Preparation of analyzes, financial and investment reports related to the enterprise.</t>
+        </is>
+      </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-php-at-rentqualifier-2528371901?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=Rn%2Futp4WHRn8YXDpQKLruA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=1f5e09733759d9a1&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Accountant MEA</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Lexia Learning</t>
+          <t>Mölnlycke</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Concord, MA</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Work cross functionally to support financial projects and engage with employee financial questions.
+Liaise with head office based financial service centre for…</t>
+        </is>
+      </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/senior-software-engineer-at-lexia-learning-2544908239?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=HAWcGDTsXM0b2nVZghRj5A%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=349336776920f0e2&amp;fccid=3268f7bd25571a75&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Associate Financial Analyst</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Lexia Learning</t>
+          <t>Majid Al Futtaim</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Concord, MA</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Extract financial data and conduct deep dive analysis for existing businesses.
+The Junior Financial Analyst will be working closely with the Senior Financial…</t>
+        </is>
+      </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/senior-software-engineer-at-lexia-learning-2544907287?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=0iJHy4Q%2BKvzkUbxtnnOfXg%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=716eb81fbe2a393f&amp;fccid=6e8b987bf599d907&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>CFO - Chief Financial Officer</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Lexia Learning</t>
+          <t>Robert Half United Arab Emirates</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Concord, MA</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>To provide recommendations to strategically enhance financial performance and business opportunities.
+To provide executive management with advice on the…</t>
+        </is>
+      </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/senior-software-engineer-at-lexia-learning-2544910089?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=0DtEyL%2Bz2PQLdrkpF63Org%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=646776de8c0d3aa5&amp;fccid=bc2f0862932e35da&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Executive Assistant – COO Office</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Mosaic Learning</t>
+          <t>Julphar</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Columbia, MD</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr"/>
+          <t>Ras al-Khaimah</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Job Title: Executive Assistant – COO Office Division: Operations ( Tech Ops, SCM , Biotech Production&amp; Engineering) Country: UNITED ARAB EMIRATES Work Location:…</t>
+        </is>
+      </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-developer-at-mosaic-learning-2543216556?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=oRUrxbyLz3tqsgL8nIU8dA%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=7ae11737d3ff1bb8&amp;fccid=02ea1bee6fdc4b67&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Addison Group</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>St Charles, IL</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Service Executive</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Deutsche Bank</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Full / Part time: Full time.
+Wealth Management Client Service Executive.
+Deutsche Bank's Private Bank corporate division combines the bank's expertise in…</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr"/>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=36c85752d2735148&amp;fccid=f1d8e147024abb3f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>United Arab Emirates University</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Al-Ayn</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Familiar with financial databases such as Eikon and Bloomberg.
+The candidate should hold a Bachelor or Master Degree in Finance.</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr"/>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=9aa62fe18918f091&amp;fccid=c04e2b08127b0a1d&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Commis 2 for the Waldorf Astoria Dubai International Financial Centre</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>A Commis 2 for the Waldorf Astoria Dubai International Financial Centre is responsible for preparing and presenting high quality dishes to deliver an excellent…</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>6 days ago</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/php-developer-at-addison-group-2558866167?refId=DJkPH4HgWGArcN0x3md3Jg%3D%3D&amp;trackingId=HuP3%2Bd55%2BSEqKBBM%2BDcT2A%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=de34711b44c76fc6&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Financial Planning &amp; Analysis Analyst</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Chalhoub Group</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Support monthly closing process, preparation of journal entries, compilation of financial statements and analysis of financial activity.</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>18 days ago</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=0a734ab96bb61d76&amp;fccid=01f47b3f00b281a4&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>UAE - Dubai - Global Advisory - Long-term Internship</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Rothschild &amp; Co</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Rothschild &amp; Co offers Long Term Internship in its Dubai office, where the Intern will work on a broad range of sectors and transactions.</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr"/>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=14bf7414289f1da3&amp;fccid=745c701390025868&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>JUNIOR ACCOUNTANT</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Al Ghazi</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Analyze financial information and summarize financial status.
+Asist in preparing financial reports and perform account reconciliations.</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr"/>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=8807549047b31aa1&amp;fccid=4d1ed84ec89c3b75&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Freight Service Clerk</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Gulftainer</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Sharjah</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Industry Type: Logistics / Transportation / Warehousing / Courier.
+Other Benefits:As Per UAE Labor Law.
+Functional Area:Logistics / Supply Chain May 25, 2021.</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr"/>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=ca3f71572e2fa8f2&amp;fccid=895d427de3fea4ff&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Assistant Accountant - Al Ain</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Arla Foods</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Executes defined processes and procedures to achieve operational targets or service standards key to business delivery – tasked with continuous improvement.</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr"/>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=6f179ae6e32f2286&amp;fccid=19668f4c62648b93&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Sr. Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Beckman Coulter Diagnostics</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Support commercial/finance leader for various management reports and other ad-hoc financial analysis.
+EXPERIENCE: This position requires more than 5 years…</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr"/>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=727e0e642e02cf19&amp;fccid=432c7642003cc768&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Financial Accounting &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>PURE HEALTH</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Experience: Previous experience in Financial analysis and reporting.
+Strong SAP, Financial regulations and accounting procedures knowledge.</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr"/>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=88f9b6d9dcd0977c&amp;fccid=f9d6c388134ec788&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Common Services Clerk</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Canadian Embassy</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>; enters data in departmental integrated automated financial, procurement and HRMS systems; and keeps various manuals and publications up to date for office…</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr"/>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=f206ac7d0bd4e57c&amp;fccid=5816d79d804f4e07&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Finance Graduate Trainee 2021</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>L'Oreal</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>You will support cost cutting projects alongside ad hoc report requests and support our business to make the right investment decisions and evaluate…</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr"/>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=e37d8ea7747cc203&amp;fccid=ec8a0bd60be9a6f5&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Accountant Dubai Full Time Posted 1 week ago</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>AirPro AE</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Compile and analyze financial statements.
+Ability to interpret and analyze financial statements and periodicals.
+Prepare tax documents &amp; VAT returns.</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr"/>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=24cda1fa44e24e0f&amp;fccid=14775661365c22bd&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Finance Manager - Madame Tussauds Dubai</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MADAME TUSSAUDS DUBAI</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Ensure compliance with local financial, fiscal and statutory legislation.
+Working with site management team reviewing financial performance and implementing…</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr"/>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=89af9326b0ee2d27&amp;fccid=dd616958bd9ddc12&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Global Investment Research, Equity Research - Banks and Financial Services, Business Analyst, Dubai</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Building and maintaining financial models using advanced Excel.
+Basic understanding in banking and financial services would be an advantage.</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr"/>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=493365a8089ecd7e&amp;fccid=16a97ed26c75bf2d&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Commis 2 (Pastry) for the Waldorf Astoria Dubai International Financial Centre</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>A Commis 2 for the Waldorf Astoria Dubai International Financial Centre is responsible for preparing and presenting high quality dishes to deliver an excellent…</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr"/>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=89ad3caf46524304&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>VP for Admin and Finance /Head of Financial Affairs</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Al Khawarizmi International College</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Proficiency in ERP and any other financial/accounting systems as well as advanced level in using Microsoft Office are mandatory.
+Master’s Degree is preferable.</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr"/>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=6ce36b7cc7dc95b6&amp;fccid=e5e4309ec04ef187&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Workshop Supervisor - Multi franchise</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Al Tayer Group</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Assist in developing and monitoring on a monthly basis the schedule of work, associated budget for the areas of responsibility, monitor performance against this…</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr"/>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=d02b2d5686e5db18&amp;fccid=af87ea2349e3718e&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Robert Half United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>This position is a hands-on and quality-focused financial executive with the experience that combines sound financial leadership with proven business…</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr"/>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=f27532f4d4e5ac64&amp;fccid=bc2f0862932e35da&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Financial Controller</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Dubai Investments</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Position Summary: - Managing all finance and accounting operations - Preparing and publishing timely monthly, quarterly and annual financial statements -…</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr"/>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=f1334acd43eb0eb8&amp;fccid=159192311038adf9&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Financial Controller</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Deluxe Transportation &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Ensure quality control over financial transactions and financial reporting.
+Preparing financial statement for Audit.
+Project accounting and cost control.</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=c64165180d09c253&amp;fccid=7300851f2eed0879&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Performance &amp; Reporting Analyst</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Fonterra</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>2-3 years’ experience working with complex data in financial reporting roles, preferably within the FMCG industry.</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr"/>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=ccc15d505e73772a&amp;fccid=304a097fbe070cc3&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>INTERNSHIP PORSCHE SERVICES MIDDLE EAST &amp; AFRICA</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Porsche Services Middle East &amp; Africa FZE</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Create reports and presentations for top management.
+Audit and analyze sales reports.
+Follow up on sales performance in each market using certain measures and…</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr"/>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=9a47509b622c4ccf&amp;fccid=82bc7c341f6e2a89&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Senior Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Petrofac</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Sharjah</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Preparation and review of group consolidated reports for quarterly, half-yearly and annual external financial reporting (IFRS compliant), preparation of various…</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr"/>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=936904a03721ab3d&amp;fccid=17a73c628013a669&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Junior Accountant/Admin</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>PSdigital</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>0-1 Years Of Experience.
+Excellent organizational skills and great attention to details.
+Good understanding of Accounting and Financial Reporting.</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr"/>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=0f38451c982d593b&amp;fccid=2f136e3ccf030f0e&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>SALES OFFICER</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Emirates National Oil Company</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>To achieve budgeted sales volume and financial targets assigned for the given territory through sale of LPG and other allied products.</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr"/>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=e24ba2f1626933bb&amp;fccid=5aaf4bb396721940&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>OPERATIONAL / FINANCIAL Executive For Goods Dept.</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ACTIKNOW</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Day-to-day operational planning and management of 10 stores across UAE.
+Building an effective staff corps.
+Growing business and building good relationships with…</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr"/>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=c535dfd75042f9bf&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Controller</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Monjasa</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Ensuring legal and regulatory financial compliances.
+Derivative as well as contract management (financial contracts) controlling.</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr"/>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=2d397cfa5a15b5b8&amp;fccid=2c1b11dedb1d4472&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>ACCOUNTANT</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>N.I.K General Trading</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Preparation of periodical financial statement’s.
+Relevant Qualification, Plus/minus +/- 5 year experience in accounting and reporting.</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr"/>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=a13a9633c23af027&amp;fccid=1927a5ec82c13fad&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Housekeeping Supervisor for the Waldorf Astoria Dubai International Financial Centre</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>As a Housekeeping Supervisor for the Waldorf Astoria Dubai International Financial Centre, you will support the Housekeeping Department by ensuring the upkeep…</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr"/>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>23 days ago</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=cabfa81dee9f1309&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Junior auditors</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Abdelhamid &amp; Co Certified Public Accountants &amp; Aud...</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Sharjah</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>It also involves understanding business drivers, associated risks and their potential effect on financial statement accounts.</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr"/>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=45ee68d536f25d13&amp;fccid=8a25725282591883&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Person Who Can Fill The Role Of Project &amp; Construction Manager</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ACTIKNOW</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>Daily follow-up of contractor in project.
+Skilled user of Excel, web hosting and MS Project.</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr"/>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=2843e6f83b084117&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Accounting Assistant</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>The Manitowoc Company</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>Provide operational accounting functions supports and provide timely and accurate reporting of financial information.</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr"/>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=e30c678db267070b&amp;fccid=24cd47e39a360e46&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Hiring Economist Assistant For SHPK</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ACTIKNOW</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>To assist in the re-registration of accounting documentation (Invoice).
+To assist in the preparation of Periodic Financial Reports.</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr"/>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=3ed001f42a2a3002&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Senior Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Interlink HR Consultancy</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Strong financial resources, high standards of financial controls and management through a centralised financial department and detailed business planning that…</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr"/>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=5b9e7c611ae0a8ef&amp;fccid=b5ecd11527f28fe3&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Chief Accountant</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Canopy by Hilton</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Provide reliable financial data from which the operational management can make commercial decisions.
+Have access to all financial figures and facts of the…</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr"/>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=2ee1dac04bd484ae&amp;fccid=020993ad9be53230&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Operations Coordinator</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Via Medica Intl</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Work closely with the financial department to ensure close coordination of payment processing to ensure effective management of all deployed personnel.</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr"/>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=ff4eeebdd272ad3b&amp;fccid=03a1b11f55201a40&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Financial Controller - Aftermarket</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>Smiths Detection</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Will submit and comply with all tax regulations on a timely basis • Will be responsible for the preparation of local statutory financial statements for all…</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr"/>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>20 days ago</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=e430e8f596b8a779&amp;fccid=1639f2987088dc5c&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Demi Chef de Partie for the Waldorf Astoria Dubai International Financial Centre</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Contribute to controlling costs, improving gross profit margins, and other departmental and financial targets.
+Prepare all mis-en-place for all relevant menus.</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr"/>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=6b9844839dfe537f&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Waiter/Waitress for the Waldorf Astoria Dubai International Financial Centre</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>A Waiter/ess for the Waldorf Astoria Dubai International Financial Centre is responsible for serving guests in a friendly, timely, and efficient manner to…</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr"/>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=fcc70b95fcbc572b&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>MANAGER FINANCE REPORTING</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Financial Reporting Interface (FRI) changes/updates.
+Compliance with Puma Group Accounting Policies and IFRS Accounting.
+ACCA / CA / CPA / MBA Finance.</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr"/>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=190df13fe5b566dd&amp;fccid=2f6f2e23480ffded&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>BuildConsult International</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Reporting to the CEO and shareholders, you will have full responsibility for the Finance &amp; Accounting functions across 6 core business units; Capital Markets,…</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr"/>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=fcdaac47bcaf7e46&amp;fccid=a6632c00ce04cc4f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hygiene Officer</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>InterContinental Hotels</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dubai Marina</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>InterContinental Dubai Marina is a Five Star luxury hotel in the heart of Dubai Marina with 328 rooms and residence suites, flexible event space and restaurants…</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=774b42c07d02379e&amp;fccid=f4d2651abe93eab7&amp;vjs=3</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -7,7 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet8" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet12" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -443,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,779 +498,1631 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>PeerSource</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-peersource-2554048789?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=mZyZdElXa3Vx5XhdVMPgXA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Application Developer</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Mergen IT LLC</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="1" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/mobile-application-developer-at-mergen-it-llc-2565230535?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=T9Zejlc5LP9QJ%2Bi8tJ02ew%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Engineer</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Stealth Startup</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>New York City Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>3 weeks ago</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-engineer-at-stealth-startup-2478353074?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=SRJCjTS%2FRnuhtYYG2a1tjA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Mobile App Developer</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Alkami Technology</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Plano, TX</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-mobile-app-developer-at-alkami-technology-2369617253?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=XmerqjKn0yoA9hFN74hZPQ%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Software Engineer (Flutter) (Remote)</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>KnowBe4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-flutter-remote-at-knowbe4-2547069183?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=sshXaQBDvJhIIuHKzWm1ew%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>The Plum Tree Group</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Georgia, United States</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-the-plum-tree-group-2531650927?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=LfQC7iquiR4RYwkvv%2FAVrw%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Copper Mobile</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr"/>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-copper-mobile-2531692086?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=Icn3afAOjcT16astwi%2FrGA%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Flutter Engineer, Fully Remote</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Superformula</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/mobile-flutter-engineer-fully-remote-at-superformula-2543277580?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=JVR8iP2NspRGQ61Y%2B8drWw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Flutter developer</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>ITExpertUS</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Schaumburg, IL</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>3 weeks ago</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-itexpertus-2549845446?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=EVMvHys6aaPxsqMLqoMLwQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Junior Mobile Developer</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Apex Systems</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/junior-mobile-developer-at-apex-systems-2550717139?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=WPUpDdTIV9qaijC%2Fg6Fnsg%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Software Engineer</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Influur</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/mobile-software-engineer-at-influur-2562358064?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=xxahkLMAxsFFfR6TUKsAVg%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Gray Matrix</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr"/>
+      <c r="E13" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="inlineStr"/>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-gray-matrix-2569830753?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=FBgxs8DDb7esnJP9cx%2BnKw%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Senior Developer - Flutter (Remote)</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Team Go, Inc.</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-developer-flutter-remote-at-team-go-inc-2565780700?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=%2FPw28eKD4e%2B5P6sX2cuu5g%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>RemoteHub</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Searcy, AR</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2524889361?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=UHPi51iFH06by1xsdwg00g%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Developer</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Vori Health</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr"/>
+      <c r="E16" s="1" t="inlineStr"/>
+      <c r="F16" s="1" t="inlineStr"/>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/mobile-developer-at-vori-health-2569452994?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=7fe9fQmgqrth0SxC6MHRIQ%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>RemoteHub</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>California, United States</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr"/>
+      <c r="E17" s="1" t="inlineStr"/>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2524149110?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=lGe0OjAx6k%2B4tX1%2FvlJaAQ%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Developer - Mobile/Web</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>OXOS Medical</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr"/>
+      <c r="E18" s="1" t="inlineStr"/>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>3 months ago</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-developer-mobile-web-at-oxos-medical-2487637980?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=z64c%2FomZIo1%2B%2BJcm7D9S1Q%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Desarrollador Flutter</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Torre</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Denver, CO</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr"/>
+      <c r="E19" s="1" t="inlineStr"/>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/desarrollador-flutter-at-torre-2568600617?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=tYg1aMEXAgjoEP2m4ehPVg%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Engineer (Flutter)</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Simplebet</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Remote, OR</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr"/>
+      <c r="E20" s="1" t="inlineStr"/>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/mobile-engineer-flutter-at-simplebet-2517487409?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=vAG%2BoGBzVP1yxPpLP1P67Q%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Developer</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Vori Health</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr"/>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr"/>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/mobile-developer-at-vori-health-2569452993?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=5kEWTYNqT4ZHEX3QOF8mpw%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Remote Senior Mobile Engineer (Flutter)</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Scion Staffing</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Berkeley, CA</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/remote-senior-mobile-engineer-flutter-at-scion-staffing-2554081301?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=7078jDgQzDg%2BiALCP4attQ%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Flutter VIP Tour Guide</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Flutter</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr"/>
+      <c r="E23" s="1" t="inlineStr"/>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>3 months ago</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/flutter-vip-tour-guide-at-flutter-2477505144?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=N5l4XosOTEcog0QqCDbaCw%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>Junior QA Engineer For A grocery Store</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>ACTIKNOW</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>We need an experienced tester to organize and implement automated and manual testing of a client-server mobile application.
 Experience in testing REST APIs;</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>18 days ago</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="E24" s="1" t="inlineStr"/>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>20 days ago</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=d93073bc9544b198&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Flutter Developer</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Black Pearl Consult</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Abu Dhabi</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>Our client is who is a regional tech start up within healthcare industry is looking to hire a Flutter Developer.
 Write unit and integration test.</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="E25" s="1" t="inlineStr"/>
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=a366cbda31f4941f&amp;fccid=e9d731aa91b2d791&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Android App Developer</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TenTwenty</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Conduct code reviews to ensure a code of the highest quality.
+Unit-test code for robustness, including edge cases, usability, and general reliability.</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr"/>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=14289fcd5b995ded&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Asst.Manager</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Common Concept</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>UAE</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>This individual would be working on our Sahla range of Mobile Applications driving simplicity, speed , efficiency and higher customer experience.</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr"/>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="E27" s="1" t="inlineStr"/>
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=63190d36b7212ad8&amp;fccid=6453ebd144c2f5c1&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>IT Analyst / Programmer</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Element Materials Technology</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Exposure to Angular, react, cue and flutter is desirable.
+The successful candidate will be actively involved in project start-up, requirements capture,…</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr"/>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=f24ad42670ede25f&amp;fccid=b7c2b45e2f6dc3fb&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Dot Net Developer (offshore assignment - Work From Home) for UAE</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Vinirma Consulting Private Limited</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>UAE</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D29" s="1" t="inlineStr">
         <is>
           <t>Applicant should be highly proficient in C#/.NET/ASP.
 NET MVC development focusing on web development.
 Source Control using TFS or GITT.</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr"/>
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=2ad068034aa9e341&amp;fccid=5bdb48574b465284&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>IT Analyst / Programmer</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Element Materials Technology</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Exposure to Angular, react, cue and flutter is desirable.
-The successful candidate will be actively involved in project start-up, requirements capture,…</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=f24ad42670ede25f&amp;fccid=b7c2b45e2f6dc3fb&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Android App Developer</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>TenTwenty</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Conduct code reviews to ensure a code of the highest quality.
-Unit-test code for robustness, including edge cases, usability, and general reliability.</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=14289fcd5b995ded&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Mobile Application Developer</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Al Wafaa Group</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Design and build Hybrid (Flutter,React Native ..) and Native application iOS or Android mobile applications.
-Collaborate with cross-functional teams to analyze,…</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>23 days ago</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=4b6b10809f06948e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Dot Net Technical Consultant for UAE</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Vinirma Consulting Private Limited</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>UAE</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D30" s="1" t="inlineStr">
         <is>
           <t>Applicant should be highly proficient in C#/.NET/ASP.
 NET MVC development focusing on web development.
 Source Control using TFS or GITT.</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="E30" s="1" t="inlineStr"/>
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=d7f6fdb9e112f3fb&amp;fccid=5bdb48574b465284&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Senior Developer Advocate</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>Amazon Web Services MENA FZ</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D31" s="1" t="inlineStr">
         <is>
           <t>3+ years experience in software development or working closely with developer audiences (e.g., as a solution architect or in a developer community).</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="E31" s="1" t="inlineStr"/>
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=9ca66a11fa10a5d6&amp;fccid=fe2d21eef233e94a&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Application Developer</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Al Wafaa Group</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Design and build Hybrid (Flutter,React Native ..) and Native application iOS or Android mobile applications.
+Collaborate with cross-functional teams to analyze,…</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr"/>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>25 days ago</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=4b6b10809f06948e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>talentfinder</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Job Types: Full-time, Contract.</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr"/>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/talentfinder/jobs/Flutter-Developer-10b912baf62e0949?fccid=28844b6dddda7e53&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Flutter Mobile App Developer</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>YouOnline Inc</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Dubai Silicon Oasis</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>Knowledge on building flutter module and flutter plug-ins.
+Knowledge on building flutter modules and flutter plug-ins.
+Must have work experience with Angular.</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr"/>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/YouOnline-Inc/jobs/Flutter-Mobile-Application-Developer-42ad1fa9ec827ba1?fccid=90dd1ce5568c1e85&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Flutter Developer or Crossplatform Mobile Developers</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>Altaligence</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D35" s="1" t="inlineStr">
         <is>
           <t>You will be working with our engineers to develop and maintain high quality mobile applications.
 Support the entire application lifecycle (concept, design, test…</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>21 days ago</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="E35" s="1" t="inlineStr"/>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>23 days ago</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/ALTA-TECH-DWC-LLC/jobs/Flutter-Developer-or-Crossplatform-Mobile-Developer-b8b6414a763a9c76?fccid=3f477267445bfa3f&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>talentfinder</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Forres IT Dubai</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Job Types: Full-time, Contract.</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr"/>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>13 days ago</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/talentfinder/jobs/Flutter-Developer-10b912baf62e0949?fccid=28844b6dddda7e53&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Minimum of 3-5years of experience in mobile application management.
+Experience in onsite project management using agile methodology is essential.</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr"/>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Forres-IT-Dubai/jobs/Project-Manager-6af6429747fc5186?fccid=7f804db629b44b1f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Flutter Engineer</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>Anghami</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>Abu Dhabi</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D37" s="1" t="inlineStr">
         <is>
           <t>Collaborate with our product and design teams to build features and enhancements for the Anghami for Artists application.</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="E37" s="1" t="inlineStr"/>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=0f0a03c730708b91&amp;fccid=1f10e14ed3a85aa5&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mobile app developer</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Forres IT Dubai</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>1+ years of experience in flutter.
+4 years of experience in Android and IOS.
+Develop SDKs, libraries, and widgets to create a mobile application development…</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr"/>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Forres-IT-Dubai/jobs/Mobile-Application-Developer-1308690313bdbba2?fccid=7f804db629b44b1f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Software developers Software Engineers</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MVP Application and game design L.L.C</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>JavaScript, Java, dart language c, c#, flutter, reacnative, jQuery, and angularJS, C++, firebase, MATLAB, NI Multisim, Latex, Linux Bash scripting, SQL, RStudio…</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/MVP-APPLICATION-AND-GAME-DESIGN/jobs/Software-Developer-Software-Engineer-6a961a52251f8d4e?fccid=fa9082617bf3b69b&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Back End Developer</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Mandotech LLC</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Al Nahda</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Microservices, API, AWS, Git Hub , Containers.
+At least one MVC Framework like JSF, Play framework, Struts, or Spring framework.</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr"/>
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0f0a03c730708b91&amp;fccid=1f10e14ed3a85aa5&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Software developers Software Engineers</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>MVP Application and game design L.L.C</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Tracing-Smart-GPS-trading-LLC/jobs/Back-End-Developer-fef175617828b81c?fccid=b2bb1664a70347d4&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Doctors Group Limited</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>Abu Dhabi</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>JavaScript, Java, dart language c, c#, flutter, reacnative, jQuery, and angularJS, C++, firebase, MATLAB, NI Multisim, Latex, Linux Bash scripting, SQL, RStudio…</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr"/>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/MVP-APPLICATION-AND-GAME-DESIGN/jobs/Software-Developer-Software-Engineer-6a961a52251f8d4e?fccid=fa9082617bf3b69b&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>QA Engineer</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Doctors Group Limited</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>Run various tests on software products to ensure that programs satisfy all specifications.
 Execute test cases (manual or automated) and analyze results.</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr"/>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>7 days ago</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr"/>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/doctorsae/jobs/QA-Engineer-9b0951a3cfd3fe27?fccid=97c3305475bd5f28&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Back End Developer</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Mandotech LLC</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>Al Nahda</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>Microservices, API, AWS, Git Hub , Containers.
-At least one MVC Framework like JSF, Play framework, Struts, or Spring framework.</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Tracing-Smart-GPS-trading-LLC/jobs/Back-End-Developer-fef175617828b81c?fccid=b2bb1664a70347d4&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Mobile Application Developer | software engineer</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>MVP Application and game design L.L.C</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>JavaScript, Java, dart language c, c#, flutter, reacnative, jQuery, and angularJS, C++, firebase, MATLAB, NI Multisim, Latex, Linux Bash scripting, SQL, RStudio…</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr"/>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>16 days ago</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/MVP-APPLICATION-AND-GAME-DESIGN/jobs/Mobile-Application-Developer-Software-Engineer-8be21f3df3f9e176?fccid=fa9082617bf3b69b&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Mobile Application Developer</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Oasis Livestock Company</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>We are looking for a skilled Mobile App Developer who will be responsible for developing and/or designing our new Mobile Applications.</t>
-        </is>
-      </c>
-      <c r="E18" s="1" t="inlineStr"/>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>22 days ago</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Oasis-Live-Stock-Company-L-L-C/jobs/Mobile-Application-Developer-f92d0bd6e00c7a4a?fccid=00239d5ec1ee57f1&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>Tenderd Track DMCC</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D42" s="1" t="inlineStr">
         <is>
           <t>Tenderd is a marketplace for contractors in the UAE to rent construction equipment.
 We're looking for a Software Engineer who will play a key role in building…</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="E42" s="1" t="inlineStr"/>
+      <c r="F42" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G42" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Tenderd-Track-DMCC/jobs/Software-Engineer-9c30ca02b2535e5b?fccid=35129b8a46d9f4fe&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Application Developer</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Oasis Livestock Company</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>We are looking for a skilled Mobile App Developer who will be responsible for developing and/or designing our new Mobile Applications.</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr"/>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>24 days ago</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Oasis-Live-Stock-Company-L-L-C/jobs/Mobile-Application-Developer-f92d0bd6e00c7a4a?fccid=00239d5ec1ee57f1&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Application Developer | software engineer</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>MVP Application and game design L.L.C</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>JavaScript, Java, dart language c, c#, flutter, reacnative, jQuery, and angularJS, C++, firebase, MATLAB, NI Multisim, Latex, Linux Bash scripting, SQL, RStudio…</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr"/>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>18 days ago</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/MVP-APPLICATION-AND-GAME-DESIGN/jobs/Mobile-Application-Developer-Software-Engineer-8be21f3df3f9e176?fccid=fa9082617bf3b69b&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Android Application Developer</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>AST solution LLC</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D45" s="1" t="inlineStr">
         <is>
           <t>2+ years of Android application development with Kotlin, Java, and well-known application frameworks.
 Expertise in design patterns, data structures, algorithms,…</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>15 days ago</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="E45" s="1" t="inlineStr"/>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>17 days ago</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/AST-solution-LLC/jobs/Android-Application-Developer-bbcda82b3227208d?fccid=b6765e288c7914ca&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Senior Back End PHP Developer</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Mandotech</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Mobile &amp; App Developer</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>BMA International FZE</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>Software Company located in Dubai is hiring a senior PHP developer with minimum 8 years’ experience in ERP development industry.</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr"/>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>24 days ago</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Mandotech/jobs/Senior-Back-End-PHP-Developer-706e196a3bf8f0ce?fccid=d827a45fba55828e&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Mobile &amp; App Developer</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>BMA International FZE</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D46" s="1" t="inlineStr">
         <is>
           <t>Must have minimum 2 years of hands on experience in Web based technology (ASP.Net, ASP.
 Must have Minimum 2 years of hands on experience in Mobile Technology -…</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr"/>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="E46" s="1" t="inlineStr"/>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/BMA-International-FZE/jobs/Mobile-Application-Developer-d1145f7009ee7349?fccid=101e7e1336581604&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Mandotech LLC</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Al Nahda</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>IT Company located In Dubai requires full stack developer who can join immediately, min experience 5 years in ERP development, and flutter, familiar with Java…</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Tracing-Smart-GPS-trading-LLC/jobs/Full-Stack-Developer-92feca0ff29598b4?fccid=b2bb1664a70347d4&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Senior Back End PHP Developer</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Mandotech</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Software Company located in Dubai is hiring a senior PHP developer with minimum 8 years’ experience in ERP development industry.</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr"/>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Mandotech/jobs/Senior-Back-End-PHP-Developer-706e196a3bf8f0ce?fccid=d827a45fba55828e&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Magento Developer</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>The Thought Factory DMCC</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D48" s="1" t="inlineStr">
         <is>
           <t>Working with &amp; supporting cross development (for mobile – flutter) team.
 A talented Magento (version 2.0) developer who will be in charge of maintaining our…</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="E48" s="1" t="inlineStr"/>
+      <c r="F48" s="1" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G48" s="1" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/The-Thought-Factory-DMCC/jobs/Magento-Developer-dcb52fb7d7e88aec?fccid=4cdcac5eecdb0370&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mandotech LLC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Al Nahda</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>IT Company located In Dubai requires full stack developer who can join immediately, min experience 5 years in ERP development, and flutter, familiar with Java…</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Tracing-Smart-GPS-trading-LLC/jobs/Full-Stack-Developer-92feca0ff29598b4?fccid=b2bb1664a70347d4&amp;vjs=3</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -7,14 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet7" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet8" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet9" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet12" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet13" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet14" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet17" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sheet18" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sheet19" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -450,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,15 +485,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>PostDate</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PostDate</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>JobUrl</t>
         </is>
@@ -498,634 +497,614 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Medical Delegate</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>PeerSource</t>
+          <t>Nestlé</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-peersource-2554048789?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=mZyZdElXa3Vx5XhdVMPgXA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/medical-delegate-at-nestl%C3%A9-2564254591?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=W62B4f8eHd17GxItV03lPw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Mobile Application Developer</t>
+          <t>Medical Underwriter</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Mergen IT LLC</t>
+          <t>Oman Insurance Company</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr"/>
-      <c r="E3" s="1" t="inlineStr"/>
-      <c r="F3" s="1" t="inlineStr"/>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-application-developer-at-mergen-it-llc-2565230535?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=T9Zejlc5LP9QJ%2Bi8tJ02ew%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/medical-underwriter-at-oman-insurance-company-2559475567?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=EYD9wTqyDPyj9SEBA4KkAA%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Flutter Engineer</t>
+          <t>NHSc Medical Representative</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Stealth Startup</t>
+          <t>Nestlé Health Science</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>New York City Metropolitan Area</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr"/>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-engineer-at-stealth-startup-2478353074?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=SRJCjTS%2FRnuhtYYG2a1tjA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/nhsc-medical-representative-at-nestl%C3%A9-health-science-2564254590?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=EjowlV9jS4ubL1Zg74vECQ%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Flutter Mobile App Developer</t>
+          <t>Medical Representative</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Alkami Technology</t>
+          <t>Pharmaceutical Company</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Plano, TX</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr"/>
-      <c r="E5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-mobile-app-developer-at-alkami-technology-2369617253?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=XmerqjKn0yoA9hFN74hZPQ%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/medical-representative-at-pharmaceutical-company-2539682021?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=EQEc4s5ExRqek3OtbFFwKA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Software Engineer (Flutter) (Remote)</t>
+          <t>Professional Medical Representative</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>KnowBe4</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>1 month ago</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-flutter-remote-at-knowbe4-2547069183?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=sshXaQBDvJhIIuHKzWm1ew%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/professional-medical-representative-at-pfizer-2554053720?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=0v5KqXK3ARsMmwo3MsrX%2Bg%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Clinical Specialist</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>The Plum Tree Group</t>
+          <t>Align Technology</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Georgia, United States</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr"/>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-the-plum-tree-group-2531650927?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=LfQC7iquiR4RYwkvv%2FAVrw%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/clinical-specialist-at-align-technology-2565233410?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=3STPXAQiiw3ssAwWinwjRg%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Medical Diagnostic Laboratory Product Specialist</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Copper Mobile</t>
+          <t>BIORUS</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-copper-mobile-2531692086?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=Icn3afAOjcT16astwi%2FrGA%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/medical-diagnostic-laboratory-product-specialist-at-biorus-2557204865?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=JGLNDJl3RqdnYpqxt4LnYw%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Mobile Flutter Engineer, Fully Remote</t>
+          <t>Medical Representative</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Superformula</t>
+          <t>Pharmalink Drug Store</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-flutter-engineer-fully-remote-at-superformula-2543277580?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=JVR8iP2NspRGQ61Y%2B8drWw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/medical-representative-at-pharmalink-drug-store-2345288045?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=nPOGQhElGNvbhXl1VkMjPA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Flutter developer</t>
+          <t>MEDICAL SCIENCE LIAISON – MIDDLE EAST -ONCOLOGY AND SPECIALTY CARE</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ITExpertUS</t>
+          <t>MENARINI Group</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Schaumburg, IL</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-itexpertus-2549845446?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=EVMvHys6aaPxsqMLqoMLwQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/medical-science-liaison-%E2%80%93-middle-east-oncology-and-specialty-care-at-menarini-group-2557910021?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=zpjbo0Kbb8XrbGz5TV%2Bg0Q%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Junior Mobile Developer</t>
+          <t>Product Manager, Trauma</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Apex Systems</t>
+          <t>Stryker</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr"/>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>7 days ago</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/junior-mobile-developer-at-apex-systems-2550717139?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=WPUpDdTIV9qaijC%2Fg6Fnsg%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/product-manager-trauma-at-stryker-2558395982?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=OgzqC6JhnteHQyjO5G%2FZzw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mobile Software Engineer</t>
+          <t>Healthcare Assistant I Healthcare I Dubai- UAE</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Influur</t>
+          <t>Al-Futtaim</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-software-engineer-at-influur-2562358064?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=xxahkLMAxsFFfR6TUKsAVg%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/healthcare-assistant-i-healthcare-i-dubai-uae-at-al-futtaim-2562707906?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=1T4IOcuJ36IvUsYYcx0XWg%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Clinic Administrator</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Gray Matrix</t>
+          <t>Camali Clinic</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Indianapolis, IN</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-gray-matrix-2569830753?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=FBgxs8DDb7esnJP9cx%2BnKw%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/clinic-administrator-at-camali-clinic-2563471016?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=rkfmp5mEMzWAcKAo67DdNg%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Senior Developer - Flutter (Remote)</t>
+          <t>Associate Medical Advisor - Covid-19 Therapeutics</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Team Go, Inc.</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/senior-developer-flutter-remote-at-team-go-inc-2565780700?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=%2FPw28eKD4e%2B5P6sX2cuu5g%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/associate-medical-advisor-covid-19-therapeutics-at-eli-lilly-and-company-2563493176?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=sX7DnmY%2FSHBV36ZCYU8jiQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Inflight Medical Officer</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>RemoteHub</t>
+          <t>Emirates</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Searcy, AR</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2524889361?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=UHPi51iFH06by1xsdwg00g%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/inflight-medical-officer-at-emirates-2552437463?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=cA04F0Mgq6Muv8f7BjznGg%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Learning And Development Specialist</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Vori Health</t>
+          <t>Masafi LLC</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr"/>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-developer-at-vori-health-2569452994?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=7fe9fQmgqrth0SxC6MHRIQ%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/learning-and-development-specialist-at-masafi-llc-2568464785?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=OB%2Fv7ceK5jOnf%2BHFr%2BeN%2FQ%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Healthcare Recruiter (temporary position)</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>RemoteHub</t>
+          <t>Dubai Healthcare City</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>California, United States</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr"/>
-      <c r="E17" s="1" t="inlineStr"/>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>1 month ago</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2524149110?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=lGe0OjAx6k%2B4tX1%2FvlJaAQ%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/healthcare-recruiter-temporary-position-at-dubai-healthcare-city-2547018981?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=8cMj61eRKLg7PhMzelsrDg%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer - Mobile/Web</t>
+          <t>Medical Laboratory Technologist 1 - Dubai Hospital</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>OXOS Medical</t>
+          <t>Dubai Careers - A Smart Dubai Initiative</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr"/>
-      <c r="E18" s="1" t="inlineStr"/>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>3 months ago</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-mobile-web-at-oxos-medical-2487637980?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=z64c%2FomZIo1%2B%2BJcm7D9S1Q%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/medical-laboratory-technologist-1-dubai-hospital-at-dubai-careers-a-smart-dubai-initiative-2565313085?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=W62Fe5MrW3MRZfvafrq2RA%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Desarrollador Flutter</t>
+          <t>Policy Amdin Medical Insurance Specialist</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Torre</t>
+          <t>Axis Insurance Brokers LLC</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr"/>
-      <c r="E19" s="1" t="inlineStr"/>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/desarrollador-flutter-at-torre-2568600617?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=tYg1aMEXAgjoEP2m4ehPVg%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/policy-amdin-medical-insurance-specialist-at-axis-insurance-brokers-llc-2549121449?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=jYBXNBwPE%2Fchfu8GHP75tg%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Mobile Engineer (Flutter)</t>
+          <t>Infectious disease specialist</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Simplebet</t>
+          <t>SearchPlus HR Dubai</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Remote, OR</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr"/>
-      <c r="E20" s="1" t="inlineStr"/>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>1 month ago</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-engineer-flutter-at-simplebet-2517487409?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=vAG%2BoGBzVP1yxPpLP1P67Q%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/infectious-disease-specialist-at-searchplus-hr-dubai-2569246741?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=ocqV5WP13ITgYyNWBrEcWQ%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Intern -SI RLM Medical Affairs</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Vori Health</t>
+          <t>Medtronic</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr"/>
       <c r="E21" s="1" t="inlineStr"/>
-      <c r="F21" s="1" t="inlineStr"/>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-developer-at-vori-health-2569452993?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=5kEWTYNqT4ZHEX3QOF8mpw%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/intern-si-rlm-medical-affairs-at-medtronic-2570750631?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=2AqoTrzSYGTaEwvqoT40Wg%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Remote Senior Mobile Engineer (Flutter)</t>
+          <t>Laboratory Key Account Specialist</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Scion Staffing</t>
+          <t>medical Devices Company</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Berkeley, CA</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr"/>
-      <c r="E22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/remote-senior-mobile-engineer-flutter-at-scion-staffing-2554081301?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=7078jDgQzDg%2BiALCP4attQ%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/laboratory-key-account-specialist-at-medical-devices-company-2557202983?refId=uTuIVuB4%2BXksduHvHaYn0A%3D%3D&amp;trackingId=7ldCJtySd68082evMwPiGw%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Flutter VIP Tour Guide</t>
+          <t>NHSc Medical Representative</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Flutter</t>
+          <t>Nestle</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr"/>
-      <c r="E23" s="1" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Experience with organizing medical events.
+University degree – medical, physician, pharmacist, nutritionist.
+You’ll be responsible of generating demand in form…</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>3 months ago</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-vip-tour-guide-at-flutter-2477505144?refId=cI0i4mZkZZPRlqvwJyeTXg%3D%3D&amp;trackingId=N5l4XosOTEcog0QqCDbaCw%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=fb8010cdd227c1d8&amp;fccid=bfdac90a7574b77c&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Junior QA Engineer For A grocery Store</t>
+          <t>Associate.Customer Care.Aster Medical Centre, Qusais</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>ACTIKNOW</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1135,65 +1114,61 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>We need an experienced tester to organize and implement automated and manual testing of a client-server mobile application.
-Experience in testing REST APIs;</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr"/>
+          <t>Aster Hospitals , one of the largest private healthcare service providers in GCC, aim to make a difference with our patient-centric approach to medical care and…</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>20 days ago</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=d93073bc9544b198&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=804cc539f85b8e7d&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Associate.Customer Care.Union Medical Centre</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Black Pearl Consult</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Abu Dhabi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Our client is who is a regional tech start up within healthcare industry is looking to hire a Flutter Developer.
-Write unit and integration test.</t>
-        </is>
-      </c>
-      <c r="E25" s="1" t="inlineStr"/>
+          <t>Aster Hospitals , one of the largest private healthcare service providers in GCC, aim to make a difference with our patient-centric approach to medical care and…</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=a366cbda31f4941f&amp;fccid=e9d731aa91b2d791&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=3396590d97e4ab20&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Android App Developer</t>
+          <t>Medical Delegate</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>TenTwenty</t>
+          <t>Nestle</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -1203,64 +1178,63 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Conduct code reviews to ensure a code of the highest quality.
-Unit-test code for robustness, including edge cases, usability, and general reliability.</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr"/>
+          <t>Develop long-term mutually beneficial professional relationships with Healthcare Professionals and relevant medical decision makers.
+0 - 2 years of experience.</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=14289fcd5b995ded&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=2c27c90fceb1cae2&amp;fccid=bfdac90a7574b77c&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Asst.Manager</t>
+          <t>Associate.Unit Administration.Aster Medical Centre, Qusais</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Common Concept</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>This individual would be working on our Sahla range of Mobile Applications driving simplicity, speed , efficiency and higher customer experience.</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr"/>
+          <t>Arrange the necessary manpower for medical camps in coordination with AGM Nursing.
+The administrator must make sure that medical histories, current health…</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=63190d36b7212ad8&amp;fccid=6453ebd144c2f5c1&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=193d73647dff694f&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IT Analyst / Programmer</t>
+          <t>Associate.Customer Care.Medcare Medical Centre Al Barsha (Br)</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Element Materials Technology</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -1270,101 +1244,95 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Exposure to Angular, react, cue and flutter is desirable.
-The successful candidate will be actively involved in project start-up, requirements capture,…</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr"/>
+          <t>Maintain medical records and report when required.
+Assist patients to complete all necessary forms and documentation including medical insurance.</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=f24ad42670ede25f&amp;fccid=b7c2b45e2f6dc3fb&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=5707538f6fb1c113&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Dot Net Developer (offshore assignment - Work From Home) for UAE</t>
+          <t>Associate.Customer Care.Aster Medical Centre, Silicon Oasis</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Vinirma Consulting Private Limited</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Applicant should be highly proficient in C#/.NET/ASP.
-NET MVC development focusing on web development.
-Source Control using TFS or GITT.</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr"/>
+          <t>Aster Hospitals , one of the largest private healthcare service providers in GCC, aim to make a difference with our patient-centric approach to medical care and…</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=2ad068034aa9e341&amp;fccid=5bdb48574b465284&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=15c92d7932fb2ac7&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Dot Net Technical Consultant for UAE</t>
+          <t>Associate.Customer Care.Aster Medical Centre, Business Bay</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Vinirma Consulting Private Limited</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Applicant should be highly proficient in C#/.NET/ASP.
-NET MVC development focusing on web development.
-Source Control using TFS or GITT.</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr"/>
+          <t>Maintain medical records and report when required.
+Assist patients to complete all necessary forms and documentation including medical insurance.</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=d7f6fdb9e112f3fb&amp;fccid=5bdb48574b465284&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=5ece8c15e3d996c9&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Senior Developer Advocate</t>
+          <t>Laboratory Technician - Emirates Medical Services</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Amazon Web Services MENA FZ</t>
+          <t>The Emirates Group</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -1374,30 +1342,29 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>3+ years experience in software development or working closely with developer audiences (e.g., as a solution architect or in a developer community).</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr"/>
+          <t>This includes maintaining annual continuing medical education (CME) requirements mandated by the Dubai Health Authority (DHA) and the individuals own…</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=9ca66a11fa10a5d6&amp;fccid=fe2d21eef233e94a&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=8d7be4b66b713a2c&amp;fccid=9ef97ff407fc27fd&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Mobile Application Developer</t>
+          <t>Inflight Medical Officer</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Al Wafaa Group</t>
+          <t>The Emirates Group</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -1407,31 +1374,30 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Design and build Hybrid (Flutter,React Native ..) and Native application iOS or Android mobile applications.
-Collaborate with cross-functional teams to analyze,…</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr"/>
+          <t>MBBS or equivalent medical degree.
+Current medical registration with a recognised medical board or council is required along with qualifications and minimum…</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>25 days ago</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=4b6b10809f06948e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=dc2c32aa45ae5a1e&amp;fccid=9ef97ff407fc27fd&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Associate.Customer Care.Aster Jubilee Medical Complex(Br Of Dm Healthcare)</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>talentfinder</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -1441,65 +1407,62 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Job Types: Full-time, Contract.</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr"/>
+          <t>Maintain medical records and report when required.
+Assist patients to complete all necessary forms and documentation including medical insurance.</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>15 days ago</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/talentfinder/jobs/Flutter-Developer-10b912baf62e0949?fccid=28844b6dddda7e53&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=07c74470c444fae2&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Flutter Mobile App Developer</t>
+          <t>Medical Authorization OP</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>YouOnline Inc</t>
+          <t>Neuron</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Dubai Silicon Oasis</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Knowledge on building flutter module and flutter plug-ins.
-Knowledge on building flutter modules and flutter plug-ins.
-Must have work experience with Angular.</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr"/>
+          <t>Collaborates with doctors and other medical practitioners within the medical team regarding medical conditions that require specific indication on every…</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/YouOnline-Inc/jobs/Flutter-Mobile-Application-Developer-42ad1fa9ec827ba1?fccid=90dd1ce5568c1e85&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=a292f5d4c7392813&amp;fccid=808feefc943a875c&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Flutter Developer or Crossplatform Mobile Developers</t>
+          <t>Professional Medical Representative</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Altaligence</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -1509,31 +1472,30 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>You will be working with our engineers to develop and maintain high quality mobile applications.
-Support the entire application lifecycle (concept, design, test…</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr"/>
+          <t>Providing approved information to HCPs on Pfizer products, e.g. proper medical usage, dosage amounts and side effects.
+Organizing AV activities in his/her area.</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>23 days ago</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/ALTA-TECH-DWC-LLC/jobs/Flutter-Developer-or-Crossplatform-Mobile-Developer-b8b6414a763a9c76?fccid=3f477267445bfa3f&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=963b4ff412b0f708&amp;fccid=7ff126af0cd3d93b&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Office Assistant</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Forres IT Dubai</t>
+          <t>Emirates Logistics</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -1543,64 +1505,63 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Minimum of 3-5years of experience in mobile application management.
-Experience in onsite project management using agile methodology is essential.</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr"/>
+          <t>Medical Insurance , Life Insurance, Ticket every 2 years , 30 days paid leave every year.
+Team Player and Friendly person.
+Time Keeping and attendance reports.</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>16 days ago</t>
+        </is>
+      </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="G36" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Forres-IT-Dubai/jobs/Project-Manager-6af6429747fc5186?fccid=7f804db629b44b1f&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=698a6b694d1f36b0&amp;fccid=2665673c8c3caef1&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Flutter Engineer</t>
+          <t>Associate.Call Center.DM Healthcare LLC</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Anghami</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Abu Dhabi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Collaborate with our product and design teams to build features and enhancements for the Anghami for Artists application.</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="inlineStr"/>
+          <t>Aster Hospitals , one of the largest private healthcare service providers in GCC, aim to make a difference with our patient-centric approach to medical care and…</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0f0a03c730708b91&amp;fccid=1f10e14ed3a85aa5&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=b48c643fc76cbfdc&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Mobile app developer</t>
+          <t>HR \ Admin Assistant</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Forres IT Dubai</t>
+          <t>Mineral Circles Bearings</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -1610,133 +1571,128 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>1+ years of experience in flutter.
-4 years of experience in Android and IOS.
-Develop SDKs, libraries, and widgets to create a mobile application development…</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr"/>
+          <t>Supporting the HR Department with all administrative duties and requirements.
+Handling the Medical Insurance for all employees.
+English, Arabic is a plus.</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Forres-IT-Dubai/jobs/Mobile-Application-Developer-1308690313bdbba2?fccid=7f804db629b44b1f&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=048fbc037123b1b4&amp;fccid=9f7f0cdd429ec35e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Software developers Software Engineers</t>
+          <t>PLANT OPERATOR ASSISTANT</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>MVP Application and game design L.L.C</t>
+          <t>Emirates National Oil Company</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Abu Dhabi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>JavaScript, Java, dart language c, c#, flutter, reacnative, jQuery, and angularJS, C++, firebase, MATLAB, NI Multisim, Latex, Linux Bash scripting, SQL, RStudio…</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr"/>
+          <t>Should be physically fit and healthy to do manual intensive field jobs, able to endure extreme heat and with no known medical conditions (Blood pressure,…</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>11 days ago</t>
+        </is>
+      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/MVP-APPLICATION-AND-GAME-DESIGN/jobs/Software-Developer-Software-Engineer-6a961a52251f8d4e?fccid=fa9082617bf3b69b&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=3de9a6baa5841865&amp;fccid=5aaf4bb396721940&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Back End Developer</t>
+          <t>Medical Laboratory Technician</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Mandotech LLC</t>
+          <t>هيئة الصحة بدبي</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Al Nahda</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Microservices, API, AWS, Git Hub , Containers.
-At least one MVC Framework like JSF, Play framework, Struts, or Spring framework.</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr"/>
+          <t>Carry out less complicated procedures and tests than do medical laboratory technologists.
+Set up and clean laboratories and prepare specimens.</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Tracing-Smart-GPS-trading-LLC/jobs/Back-End-Developer-fef175617828b81c?fccid=b2bb1664a70347d4&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=ea1145c6c0827bd3&amp;fccid=c166edb940e38c8e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Medical Manager – Middle East, North Africa &amp; Turkey - Dubai</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Doctors Group Limited</t>
+          <t>Aspen Pharma Group</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Abu Dhabi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Run various tests on software products to ensure that programs satisfy all specifications.
-Execute test cases (manual or automated) and analyze results.</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr"/>
+          <t>Lead Aspen medical representative on site each event (including congresses), interact with the faculty and delegates to ensure Aspen medical knowledge is…</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>10 days ago</t>
+        </is>
+      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>9 days ago</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/doctorsae/jobs/QA-Engineer-9b0951a3cfd3fe27?fccid=97c3305475bd5f28&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=695f8387e06f5ea9&amp;fccid=545ff08e0d606a89&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Senior Customer Service Officer (Fleet Centre) SC 10</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Tenderd Track DMCC</t>
+          <t>World Food Programme</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
@@ -1746,97 +1702,94 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Tenderd is a marketplace for contractors in the UAE to rent construction equipment.
-We're looking for a Software Engineer who will play a key role in building…</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr"/>
+          <t>Salary: Starting from AED 34,123.95 per month (inclusive of pension), plus medical insurance and other entitlements.
+Arabic, Spanish or French an advantage.</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Tenderd-Track-DMCC/jobs/Software-Engineer-9c30ca02b2535e5b?fccid=35129b8a46d9f4fe&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=9512a1f527a37241&amp;fccid=9f1f377f38839693&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Mobile Application Developer</t>
+          <t>Customer Service Representative - fixed-term</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Oasis Livestock Company</t>
+          <t>bp</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Abu Dhabi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>We are looking for a skilled Mobile App Developer who will be responsible for developing and/or designing our new Mobile Applications.</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr"/>
+          <t>Responsible for working across teams/functions and customer channels in direct support of executing the customer strategy, assisting in the operational…</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>24 days ago</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Oasis-Live-Stock-Company-L-L-C/jobs/Mobile-Application-Developer-f92d0bd6e00c7a4a?fccid=00239d5ec1ee57f1&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=eaedbcf7ebd43563&amp;fccid=03cacc905f5db444&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Mobile Application Developer | software engineer</t>
+          <t>Associate.Customer Care.Access Clinic, Bur Dubai</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>MVP Application and game design L.L.C</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Abu Dhabi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>JavaScript, Java, dart language c, c#, flutter, reacnative, jQuery, and angularJS, C++, firebase, MATLAB, NI Multisim, Latex, Linux Bash scripting, SQL, RStudio…</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr"/>
+          <t>Aster DM Healthcare Limited is one of the largest private healthcare service providers operating in multiple GCC states and is an emerging healthcare player…</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>18 days ago</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/MVP-APPLICATION-AND-GAME-DESIGN/jobs/Mobile-Application-Developer-Software-Engineer-8be21f3df3f9e176?fccid=fa9082617bf3b69b&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=4b0407a5f3d6cc1a&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Android Application Developer</t>
+          <t>Operational Excellence and Process Improvement Officer SC 8</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>AST solution LLC</t>
+          <t>World Food Programme</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
@@ -1846,31 +1799,29 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>2+ years of Android application development with Kotlin, Java, and well-known application frameworks.
-Expertise in design patterns, data structures, algorithms,…</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr"/>
+          <t>Salary: Starting from AED 24,374.25 per month (inclusive of pension), plus medical insurance and other entitlements.</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>17 days ago</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/AST-solution-LLC/jobs/Android-Application-Developer-bbcda82b3227208d?fccid=b6765e288c7914ca&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=bd79a7c4190863ac&amp;fccid=9f1f377f38839693&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Mobile &amp; App Developer</t>
+          <t>Sales Supervisor For A Large Medical Group</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>BMA International FZE</t>
+          <t>ACTIKNOW</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
@@ -1880,31 +1831,29 @@
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Must have minimum 2 years of hands on experience in Web based technology (ASP.Net, ASP.
-Must have Minimum 2 years of hands on experience in Mobile Technology -…</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr"/>
+          <t>Manage and coordinate sales staff schedules / plans Find potential businesses from List in medical store business website information online.</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>8 days ago</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/BMA-International-FZE/jobs/Mobile-Application-Developer-d1145f7009ee7349?fccid=101e7e1336581604&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=19fc689890420bc0&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Senior Back End PHP Developer</t>
+          <t>Support Staff.Billing.Medcare Hospital (Br)</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Mandotech</t>
+          <t>Aster Pharmacy</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
@@ -1914,30 +1863,29 @@
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Software Company located in Dubai is hiring a senior PHP developer with minimum 8 years’ experience in ERP development industry.</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr"/>
+          <t>Aster DM Healthcare Limited is one of the largest private healthcare service providers operating in multiple GCC states and is an emerging healthcare player…</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>26 days ago</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Mandotech/jobs/Senior-Back-End-PHP-Developer-706e196a3bf8f0ce?fccid=d827a45fba55828e&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=d7936a3719c7104d&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Magento Developer</t>
+          <t>Registration Assistant</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>The Thought Factory DMCC</t>
+          <t>Zayed University</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
@@ -1947,56 +1895,205 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Working with &amp; supporting cross development (for mobile – flutter) team.
-A talented Magento (version 2.0) developer who will be in charge of maintaining our…</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr"/>
+          <t>Receives medical reports and gives to Registration Officer responsible for attendance.
+The Admissions &amp; Registration Department seeks an incumbent for the…</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/The-Thought-Factory-DMCC/jobs/Magento-Developer-dcb52fb7d7e88aec?fccid=4cdcac5eecdb0370&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=ef754400270a5b0c&amp;fccid=9628b0bd10bde506&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mandotech LLC</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Al Nahda</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>IT Company located In Dubai requires full stack developer who can join immediately, min experience 5 years in ERP development, and flutter, familiar with Java…</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>8 days ago</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Tracing-Smart-GPS-trading-LLC/jobs/Full-Stack-Developer-92feca0ff29598b4?fccid=b2bb1664a70347d4&amp;vjs=3</t>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Specialist Crew Management &amp; Training m/f</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Hapag-Lloyd AG</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Ensure proactive monthly crew planning on vessels, taking into account personnel’s age, medical fitness level, visa status, where required.</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=8e3584c2dcc8265c&amp;fccid=71522f0481cbd884&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Beach Lifeguard -sports &amp; Leisure - Jumeirah Beach Hotel</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Jumeirah</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>This position offers a highly competitive salary and package which includes shared accommodation, free transport to and from your place of work, uniform,…</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=e676e9cb916f7997&amp;fccid=8015c178481add76&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Intern -SI RLM Medical Affairs</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Medtronic</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>Responsible for working with teams operating within a service group, or product group and/ or project group.
+0 years of experience required.</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=b4ae15b472826361&amp;fccid=f06a4d05bf5510ec&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Associate.Customer Care.Aster Jabel Ali Medical Centre</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Aster Pharmacy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Aster DM Healthcare Limited is one of the largest private healthcare service providers operating in multiple GCC states and is an emerging healthcare player…</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=4777b0302b319dfc&amp;fccid=af35e5cb70f8fa7e&amp;vjs=3</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2125,4 +2222,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,101 +508,81 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>PeerSource</t>
-        </is>
-      </c>
+          <t>Back End Developer ( php , CodeIgniter )</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr"/>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
+      <c r="E2" s="0" t="inlineStr"/>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-peersource-2554048789?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=o%2BpiowkVjOcMjorE641ErQ%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-php-codeigniter-at-altaligence-2627715187?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=tn4gt4ylXRLCC7oJUJ6zoA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>RemoteHub</t>
-        </is>
-      </c>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr"/>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Searcy, AR</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2524889361?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=kP%2FpN6M%2FAs%2BpqJbKpoxYRA%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/web-developer-at-creative-zone-2613193658?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=16FoRoVGSo7rLM1ayxHb2Q%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Flutter Engineer</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Stealth Startup</t>
-        </is>
-      </c>
+          <t>Senior Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr"/>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>New York City Metropolitan Area</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr"/>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-engineer-at-stealth-startup-2478353074?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=QEdweWnq5NszC9E%2Bm%2Fhk%2BA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/senior-backend-engineer-at-sgp-technology-2622589660?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=A%2FhMOxC%2FWdaCwb%2FT0m7tyg%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>RemoteHub</t>
-        </is>
-      </c>
+          <t>SharePoint Web Developer (Immediately available)</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr"/>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr"/>
@@ -613,80 +593,68 @@
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2526287785?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=HqkhXJUyNqLvNveNp%2B7JgA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/sharepoint-web-developer-immediately-available-at-ecs-me-llc-2618648444?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=bWNkorHAIGJl7%2BOtXF7j9A%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>RemoteHub</t>
-        </is>
-      </c>
+          <t>Firebase Backend Developer</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr"/>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>California, United States</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr"/>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2524149110?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=zSMlIO8GfX8UapDHn%2FE1Cg%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/firebase-backend-developer-at-arc-talent-2609225922?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=4sNxZAz1zfsE%2BfH%2FQHp78A%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>The Plum Tree Group</t>
-        </is>
-      </c>
+          <t>Staff Software Engineer I - Backend(Billing &amp; Pricing)</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr"/>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Georgia, United States</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr"/>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-the-plum-tree-group-2531650927?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=DNKcLd4M25FE6Iy%2BILm7zA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/staff-software-engineer-i-backend-billing-pricing-at-careem-2577307516?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=6Ie9o%2BX7JTNYXkGn7vPYyg%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer Specialist</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Torre</t>
-        </is>
-      </c>
+          <t>Magento Back End Developer</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr"/>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr"/>
@@ -697,944 +665,527 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-specialist-at-torre-2529529667?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=axlJbMRGXxJZB3vfSbusfw%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/magento-back-end-developer-at-redbox-digital-2623128159?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=lciUCGqHNxyxsJrNihx26Q%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer Specialist</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>Torre</t>
-        </is>
-      </c>
+          <t>Backend Developer - Fully Remote</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr"/>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr"/>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-specialist-at-torre-2529533139?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=%2BxMBOBNUSGsCFpc%2F2NKxig%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/backend-developer-fully-remote-at-sowelo-consulting-sp-z-o-o-sp-k-2592117390?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=uBzGxyt5oGectQ%2B%2FiByfwg%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Senior PHP Developer - Laravel / MySQL</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Copper Mobile</t>
+          <t>Prognica Labs</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Should have experience in language like PHP.
+Hands-on experience on MVC Framework Laravel.
+Having experience on AngularJS / ReactJS will be a plus point.</t>
+        </is>
+      </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-copper-mobile-2531692086?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=JCXwfAtnFU44SYJcIJHJSg%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer Specialist</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Torre</t>
+          <t>RTC-1 Employment Services</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Position Title: Web Developer Employment Type: Full Time Salary: up to 8K AED all inclusive depending on experience and qualifications Job Location: Dubai, UAE…</t>
+        </is>
+      </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-specialist-at-torre-2529531324?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=zsl4vmGPCSwRAv0ZYAxG6w%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=a6460e293343a1c7&amp;fccid=a0f4df2b71213d85&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Flutter Engineer</t>
+          <t>Back-end Developer</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>AccelOne</t>
+          <t>TenTwenty</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Searcy, AR</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Smart working developer with an eye for detail and following the coding standards.
+A sound understanding of front end web technologies as well.</t>
+        </is>
+      </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-engineer-at-accelone-2511304606?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=cycuH2w%2BhYwfNjwIaZx2Ww%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Flutter developer</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>ITExpertUS</t>
+          <t>ipix solutions</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>Schaumburg, IL</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .
+JS,Node .JS,Vue JS, Jquerry,AJAX , Responsive front end frameworks(e.g Bootstrap),…</t>
+        </is>
+      </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-itexpertus-2549845446?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=BuFZ86QWnrX1dm32g4ibYQ%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Mobile App Developer - Flutter</t>
+          <t>Drupal/Wordpress PHP Developer</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Braintrust</t>
+          <t>Group Three IT Consultants</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>New York, NY</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Collaborate with front and back-end developers to create usable websites for our clients.
+Group Three IT Consultants is seeking an experienced Web developer who…</t>
+        </is>
+      </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-app-developer-flutter-at-braintrust-2562477082?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=WmC%2BXleH3ycEWdb%2B9n3zxg%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Flutter VIP Tour Guide</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Flutter</t>
+          <t>28 LIGHTBULBS</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Integration of user-facing elements developed by front-end developers.
+Build efficient, testable, and reusable PHP modules.
+Good Knowledge of MySQL &amp; NoSQL.</t>
+        </is>
+      </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>3 months ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-vip-tour-guide-at-flutter-2477505144?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=QiTdvH6wNHdphYuVtJYuyw%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=ba93b8dce75a73af&amp;fccid=c84d6205b9d4151d&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Flutter Engineer</t>
+          <t>We are seeking a Full Stack Developer with SaaS experience.</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>iUNU, Inc.</t>
+          <t>Scancruit</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Grow your skills and build features end-to-end, getting exposure to all layers of stack.
+Minimum 3-5 years of consumer facing application development experience…</t>
+        </is>
+      </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-engineer-at-iunu-inc-2482167836?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=hYO8f3fC%2F%2FWmCFc%2FMLHAIw%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=35380171cff2f957&amp;fccid=7021cc13a0d80157&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>RemoteHub</t>
+          <t>Mbr Headhunters</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Home, KS</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Experience in developing scalable, high -performance web Applications &amp; desktop software.
+Proficient with n-tier application architecture, design, development,…</t>
+        </is>
+      </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>24 days ago</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-remotehub-2525766496?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=wM9qhD7y8Ch1uJ9JRYuwnA%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=1817d6b717aa4758&amp;fccid=2e446275f8cd19d2&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Mobile Flutter Engineer, Fully Remote</t>
+          <t>Software Development Lead</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Superformula</t>
+          <t>First Point Group Ltd</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>New York, NY</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Ideally have expereince of successful development/launches of applications built using JS libraries/ Escript6 / Vue.js / Firebase/ laravel / flutter.</t>
+        </is>
+      </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>29 days ago</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-flutter-engineer-fully-remote-at-superformula-2543277580?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=QWuzJHymvF2KbJ373Uy4Yw%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=771aa13ce046c153&amp;fccid=ca393fdec5169bcb&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>ProDigitalWorx Inc</t>
+          <t>Talent Arabia</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>Plano, TX</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Expert in PHP back-end development.
+Good understanding of front-end technologies, including JS Frameworks (AngularJS, ReactJS, &amp; VUEJS).</t>
+        </is>
+      </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-prodigitalworx-inc-2572856729?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=mLSBMwF6gVP9a4qNnCAFqg%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=dd3bea9ff4bbfdd8&amp;fccid=144ad60e18d268b0&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Flutter Developer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Nexient</t>
+          <t>Transportr.com</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Ann Arbor, MI</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>We are looking for a Full Stack Developer to produce scalable software solutions.
+Of a small experienced team that’s responsible for the full software…</t>
+        </is>
+      </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-nexient-2516507105?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=CHYd%2Bm2BE57Ld%2BO7XBCpsA%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/Transportr.com/jobs/Full-Stack-Developer-e3cc165a86a49931?fccid=4798e1ba3ba0d986&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Full/Part Time Senior Flutter/Dart Developer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>RemoteHub</t>
+          <t>Focus Media Academy</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>Searcy, AR</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr"/>
+          <t>Media City</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Collaborating with the front-end developers and other team members to establish objectives and design more functional, cohesive codes to enhance the user…</t>
+        </is>
+      </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/full-part-time-senior-flutter-dart-developer-at-remotehub-2514881281?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=vfeSyMCdxFkeqaZgtSTOdA%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/Focus-Academy/jobs/Full-Stack-Developer-a084ce539f3e8da0?fccid=c4d78df3039a64c6&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Full/Part Time Senior Flutter/Dart Developer</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>RemoteHub</t>
+          <t>Brainstorm Human Resources Consultants</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>California, United States</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Proven experience in both front-end and back-end programming.
+Designing user interactions on web pages.
+Developing back-end website applications.</t>
+        </is>
+      </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/full-part-time-senior-flutter-dart-developer-at-remotehub-2513778553?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=NTG4TVae65sGEHrgZatT8w%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/Brainstorm-Human-Resource-Consultants/jobs/Web-Developer-701a0e37d5f1fe4d?fccid=b0bc31d2ce72d680&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Mobile Application Developer with Flutter</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Orabase Solutions</t>
+          <t>Gadzup</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="inlineStr"/>
-      <c r="E23" s="0" t="inlineStr"/>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Have Graduation in Computer Science, Engineering or equivalent.
+Have at least 2-3 years' experience in client, UI and back-end engineering.</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/mobile-application-developer-with-flutter-at-orabase-solutions-2567130911?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=k8dGnX2SfoM3HdJW93smzQ%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/Web-Wiz/jobs/Front-End-Developer-b293e2fa71d76bcb?fccid=4e155c5e33bd967b&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>Gray Matrix</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>Indianapolis, IN</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="inlineStr"/>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/flutter-developer-at-gray-matrix-2569830753?refId=gun%2BXjcsN7YLfqECqWQkKg%3D%3D&amp;trackingId=28tlBnv9z4zhMgpwdQwOzA%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>Black Pearl Consult</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>Our client is who is a regional tech start up within healthcare industry is looking to hire a Flutter Developer.
-Write unit and integration test.</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Back-end Developer (PHP/Laravel/Node.JS/Python)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Resource Log LLC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Back end PHP developer: 4 years (Required).
+You should have minimum 4 to 8 years of experience as a Band end PHP developer.
+Good Knowledge of MySQL &amp; NoSQL.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=a366cbda31f4941f&amp;fccid=e9d731aa91b2d791&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>Junior QA Engineer For A grocery Store</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>ACTIKNOW</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>We need an experienced tester to organize and implement automated and manual testing of a client-server mobile application.
-Experience in testing REST APIs;</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>22 days ago</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=d93073bc9544b198&amp;fccid=eedbb193b40927ff&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>Android App Developer</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>TenTwenty</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>Conduct code reviews to ensure a code of the highest quality.
-Unit-test code for robustness, including edge cases, usability, and general reliability.</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=14289fcd5b995ded&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>Asst.Manager</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>Common Concept</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t>This individual would be working on our Sahla range of Mobile Applications driving simplicity, speed , efficiency and higher customer experience.</t>
-        </is>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=63190d36b7212ad8&amp;fccid=6453ebd144c2f5c1&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>IT Analyst / Programmer</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>Element Materials Technology</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t>Exposure to Angular, react, cue and flutter is desirable.
-The successful candidate will be actively involved in project start-up, requirements capture,…</t>
-        </is>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=f24ad42670ede25f&amp;fccid=b7c2b45e2f6dc3fb&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>Dot Net Developer (offshore assignment - Work From Home) for UAE</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>Vinirma Consulting Private Limited</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t>Applicant should be highly proficient in C#/.NET/ASP.
-NET MVC development focusing on web development.
-Source Control using TFS or GITT.</t>
-        </is>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=2ad068034aa9e341&amp;fccid=5bdb48574b465284&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>Dot Net Technical Consultant for UAE</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>Vinirma Consulting Private Limited</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>Applicant should be highly proficient in C#/.NET/ASP.
-NET MVC development focusing on web development.
-Source Control using TFS or GITT.</t>
-        </is>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=d7f6fdb9e112f3fb&amp;fccid=5bdb48574b465284&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>Senior Developer Advocate</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>Amazon Web Services MENA FZ</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>3+ years experience in software development or working closely with developer audiences (e.g., as a solution architect or in a developer community).</t>
-        </is>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=9ca66a11fa10a5d6&amp;fccid=fe2d21eef233e94a&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>Mobile Application Developer</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>Al Wafaa Group</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t>Design and build Hybrid (Flutter,React Native ..) and Native application iOS or Android mobile applications.
-Collaborate with cross-functional teams to analyze,…</t>
-        </is>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>27 days ago</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=4b6b10809f06948e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>Flutter Developer</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>talentfinder</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="inlineStr">
-        <is>
-          <t>Job Types: Full-time, Contract.</t>
-        </is>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t>16 days ago</t>
-        </is>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/talentfinder/jobs/Flutter-Developer-10b912baf62e0949?fccid=28844b6dddda7e53&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>Forres IT Dubai</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="inlineStr">
-        <is>
-          <t>Minimum of 3-5years of experience in mobile application management.
-Experience in onsite project management using agile methodology is essential.</t>
-        </is>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Forres-IT-Dubai/jobs/Project-Manager-6af6429747fc5186?fccid=7f804db629b44b1f&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>Flutter Mobile App Developer</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>YouOnline Inc</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>Dubai Silicon Oasis</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="inlineStr">
-        <is>
-          <t>Knowledge on building flutter module and flutter plug-ins.
-Knowledge on building flutter modules and flutter plug-ins.
-Must have work experience with Angular.</t>
-        </is>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/YouOnline-Inc/jobs/Flutter-Mobile-Application-Developer-42ad1fa9ec827ba1?fccid=90dd1ce5568c1e85&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>QA Engineer</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>Doctors Group Limited</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="inlineStr">
-        <is>
-          <t>Run various tests on software products to ensure that programs satisfy all specifications.
-Execute test cases (manual or automated) and analyze results.</t>
-        </is>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>11 days ago</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/doctorsae/jobs/QA-Engineer-9b0951a3cfd3fe27?fccid=97c3305475bd5f28&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>Senior Software Developer</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>BB Hospitality Intelligence</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="inlineStr">
-        <is>
-          <t>You will report into our head of software and will take a leading role in developing next generation user interfaces for the customer facing BB Website, the BB…</t>
-        </is>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/BB-Hospitality-Intelligence/jobs/Senior-Software-Developer-e76b6c513b699b9b?fccid=c70d7ea23ea66dd8&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Software developers Software Engineers</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MVP Application and game design L.L.C</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>JavaScript, Java, dart language c, c#, flutter, reacnative, jQuery, and angularJS, C++, firebase, MATLAB, NI Multisim, Latex, Linux Bash scripting, SQL, RStudio…</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/MVP-APPLICATION-AND-GAME-DESIGN/jobs/Software-Developer-Software-Engineer-6a961a52251f8d4e?fccid=fa9082617bf3b69b&amp;vjs=3</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/Back-End-Developer-4b99383b3a27e02f?fccid=415cd241779a8615&amp;vjs=3</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,57 +508,61 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Back End Developer ( php , CodeIgniter )</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr"/>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-php-codeigniter-at-altaligence-2627715187?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=tn4gt4ylXRLCC7oJUJ6zoA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-newpage-solutions-2631534671?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=UBOtDoh0T9MdvPgFUSo12w%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Junior Software Engineer (Laravel/Vue)</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr"/>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Nashville, TN</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-at-creative-zone-2613193658?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=16FoRoVGSo7rLM1ayxHb2Q%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/junior-software-engineer-laravel-vue-at-technologyadvice-2625959115?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=8tSBNFOWeMrBLK%2BaVkSvCg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer</t>
+          <t>Fullstack PHP Developer</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr"/>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr"/>
@@ -569,623 +573,1000 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/senior-backend-engineer-at-sgp-technology-2622589660?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=A%2FhMOxC%2FWdaCwb%2FT0m7tyg%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/fullstack-php-developer-at-bayone-solutions-2621820757?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=aI2lvV1rtX4hMzccoKLrVg%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>SharePoint Web Developer (Immediately available)</t>
+          <t>Software Server Engineer (PHP)</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr"/>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr"/>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>4 weeks ago</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/sharepoint-web-developer-immediately-available-at-ecs-me-llc-2618648444?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=bWNkorHAIGJl7%2BOtXF7j9A%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/software-server-engineer-php-at-glu-mobile-2589863341?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=aterehIQOGOgrIG%2B%2FRAxZg%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Firebase Backend Developer</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr"/>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>American Fork, UT</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr"/>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/firebase-backend-developer-at-arc-talent-2609225922?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=4sNxZAz1zfsE%2BfH%2FQHp78A%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/web-developer-at-domo-inc-2625935958?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=XW6m%2BiHT993gIbreFIOPng%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Staff Software Engineer I - Backend(Billing &amp; Pricing)</t>
+          <t>Web Software Developer</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr"/>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
+          <t>Richardson, TX</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr"/>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/staff-software-engineer-i-backend-billing-pricing-at-careem-2577307516?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=6Ie9o%2BX7JTNYXkGn7vPYyg%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/web-software-developer-at-the-university-of-texas-at-dallas-2591015862?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=44EyXhi8BOZg%2FKc%2FGvCcww%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Magento Back End Developer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr"/>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
+          <t>Cleveland, OH</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr"/>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/magento-back-end-developer-at-redbox-digital-2623128159?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=lciUCGqHNxyxsJrNihx26Q%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/full-stack-developer-at-the-refinery-2631538882?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=nf3BQvb9jAxx9%2BmsHmlLPQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Backend Developer - Fully Remote</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr"/>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>2 weeks ago</t>
-        </is>
-      </c>
+      <c r="E9" s="0" t="inlineStr"/>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/backend-developer-fully-remote-at-sowelo-consulting-sp-z-o-o-sp-k-2592117390?refId=G2DvGKkhWz6Y9u9Th%2FV2ag%3D%3D&amp;trackingId=uBzGxyt5oGectQ%2B%2FiByfwg%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-interior-define-2625131863?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=Vtqmr7baCbjsRWKraKug5w%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
+          <t>Senior Laravel Developer 100% Remote</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr"/>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-laravel-developer-100%25-remote-at-ranger-technical-resources-2567362864?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=i%2FSY7SWdf5unFUPlIn4rEA%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Sr Software Engineer - Backend</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr"/>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sr-software-engineer-backend-at-glu-mobile-2625992948?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=W6JlgNllQ4%2FXOmprGBLENw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Junior Software Developer</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr"/>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Cedar Rapids, IA</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/junior-software-developer-at-iowa-interstate-railroad-2627713370?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=3%2F94BcgoTzpgW%2BLEw0DCAQ%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Solutions Developer</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr"/>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>West Newbury, MA</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/solutions-developer-at-envision-healthcare-2575570939?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=Fsl%2FoVyin7OenwxKbHa8bA%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>PHP Engineer</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr"/>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/php-engineer-at-processmaker-2626782460?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=AMVoHmAlL%2B1noMVxeBmdvQ%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Front End Software Engineer - PHP</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr"/>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Clearfield, UT</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/front-end-software-engineer-php-at-bonnell-aluminum-2631540496?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=Y2EE%2BYaEO83tbbDcI1JuKA%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr"/>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/developer-at-market-wagon-2559205273?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=3xOo9O2wvb2j3liCjjrZgA%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer - Laravel</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr"/>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>San Diego, CA</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-laravel-at-jobot-2618765086?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=%2B6sHDKA2T6oyeNF%2B6QHCrg%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Full Stack Engineer - PHP/Laravel</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr"/>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/full-stack-engineer-php-laravel-at-bright-cellars-2580876042?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=9mHVDrc%2FXxeoGEgl9ph9kg%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Senior Web Developer/Engineer</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr"/>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Greater St. Louis</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-web-developer-engineer-at-integrity-2628648109?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=SPKcdPU1WDqzt4SUc4O%2Fww%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr"/>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/backend-developer-at-third-and-grove-2616971182?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=fJ1bAgCLn4SRewN%2F6msAYQ%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>PHP / Laravel Developer</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr"/>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr"/>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/php-laravel-developer-at-quantix-inc-2594247606?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=Kl%2BLKDG5TAuP%2FriBbhN32Q%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr"/>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Cincinnati, OH</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr"/>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/php-developer-at-cbts-2305419825?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=n0WMbLpGrJNb%2FylPCZMGgw%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Junior PHP Developer</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr"/>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Greenville, SC</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr"/>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/junior-php-developer-at-find-great-people-2598595837?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=kPFUV2%2FaCo5e6jyDLxCzeA%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr"/>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr"/>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-inside-real-estate-2612430189?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=AcIKxTIcmVBfQat2Yno%2Flw%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Full Stack / PHP Developer / Javascript</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr"/>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Tampa, FL</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr"/>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/full-stack-php-developer-javascript-at-nextpath-career-partners-2618253442?refId=HHd7kgRXASBAwzQR%2BkNCkw%3D%3D&amp;trackingId=aPyBHXY3J26Ttdp9NWd8DQ%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
           <t>Senior PHP Developer - Laravel / MySQL</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>Prognica Labs</t>
         </is>
       </c>
-      <c r="C10" s="0" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>Should have experience in language like PHP.
 Hands-on experience on MVC Framework Laravel.
 Having experience on AngularJS / ReactJS will be a plus point.</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="F10" s="0" t="inlineStr">
+      <c r="F26" s="0" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>RTC-1 Employment Services</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Backend Developer - Laravel</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Avrioc Technologies</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>At least 5 years of experience in delivering high quality backend applications including consuming and building enterprise grade APIs.</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=cb6751d33833062e&amp;fccid=d65147268ae9798b&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Back-end Developer</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>TenTwenty</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Position Title: Web Developer Employment Type: Full Time Salary: up to 8K AED all inclusive depending on experience and qualifications Job Location: Dubai, UAE…</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=a6460e293343a1c7&amp;fccid=a0f4df2b71213d85&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>Back-end Developer</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>TenTwenty</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>A sound understanding of front end web technologies as well.
+Eager to learn, discuss and share knowledge with our development team.</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>We are seeking a Full Stack Developer with SaaS experience.</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Scancruit</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Smart working developer with an eye for detail and following the coding standards.
-A sound understanding of front end web technologies as well.</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Grow your skills and build features end-to-end, getting exposure to all layers of stack.
+Minimum 3-5 years of consumer facing application development experience…</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=35380171cff2f957&amp;fccid=7021cc13a0d80157&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t>PHP Developer</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B30" s="0" t="inlineStr">
         <is>
           <t>ipix solutions</t>
         </is>
       </c>
-      <c r="C13" s="0" t="inlineStr">
+      <c r="C30" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D13" s="0" t="inlineStr">
+      <c r="D30" s="0" t="inlineStr">
         <is>
           <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .
 JS,Node .JS,Vue JS, Jquerry,AJAX , Responsive front end frameworks(e.g Bootstrap),…</t>
         </is>
       </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="E30" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="F13" s="0" t="inlineStr">
+      <c r="F30" s="0" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>Drupal/Wordpress PHP Developer</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>Group Three IT Consultants</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>RTC-1 Employment Services</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Collaborate with front and back-end developers to create usable websites for our clients.
-Group Three IT Consultants is seeking an experienced Web developer who…</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Position Title: Web Developer Employment Type: Full Time Salary: up to 8K AED all inclusive depending on experience and qualifications Job Location: Dubai, UAE…</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=a6460e293343a1c7&amp;fccid=a0f4df2b71213d85&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t>PHP Developer</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B32" s="0" t="inlineStr">
         <is>
           <t>28 LIGHTBULBS</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
+      <c r="D32" s="0" t="inlineStr">
         <is>
           <t>Integration of user-facing elements developed by front-end developers.
 Build efficient, testable, and reusable PHP modules.
 Good Knowledge of MySQL &amp; NoSQL.</t>
         </is>
       </c>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="E32" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="F15" s="0" t="inlineStr">
+      <c r="F32" s="0" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=ba93b8dce75a73af&amp;fccid=c84d6205b9d4151d&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>We are seeking a Full Stack Developer with SaaS experience.</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>Scancruit</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Drupal/Wordpress PHP Developer</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Group Three IT Consultants</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Grow your skills and build features end-to-end, getting exposure to all layers of stack.
-Minimum 3-5 years of consumer facing application development experience…</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Group Three IT Consultants is seeking an experienced Web developer who'll build Websites, SPAs, and Web Applications.
+Fix bugs and issues on existing sites.</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=35380171cff2f957&amp;fccid=7021cc13a0d80157&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>PHP programmer</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Al Wafaa Group</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Laravel,PHP,Basic CSS,HTML,Java API.</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=aad8334ceccc416e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Software Development Lead</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>First Point Group Ltd</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Ideally have expereince of successful development/launches of applications built using JS libraries/ Escript6 / Vue.js / Firebase/ laravel / flutter.</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=771aa13ce046c153&amp;fccid=ca393fdec5169bcb&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>Full Stack Web Developer</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>Mbr Headhunters</t>
         </is>
       </c>
-      <c r="C17" s="0" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
+      <c r="D36" s="0" t="inlineStr">
         <is>
           <t>Experience in developing scalable, high -performance web Applications &amp; desktop software.
 Proficient with n-tier application architecture, design, development,…</t>
         </is>
       </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>24 days ago</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=1817d6b717aa4758&amp;fccid=2e446275f8cd19d2&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Software Development Lead</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>First Point Group Ltd</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Full Stack Web Developer</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Talent Arabia</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Ideally have expereince of successful development/launches of applications built using JS libraries/ Escript6 / Vue.js / Firebase/ laravel / flutter.</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>29 days ago</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=771aa13ce046c153&amp;fccid=ca393fdec5169bcb&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>Talent Arabia</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
+      <c r="D37" s="0" t="inlineStr">
         <is>
           <t>Expert in PHP back-end development.
 Good understanding of front-end technologies, including JS Frameworks (AngularJS, ReactJS, &amp; VUEJS).</t>
         </is>
       </c>
-      <c r="E19" s="0" t="inlineStr">
+      <c r="E37" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
         </is>
       </c>
-      <c r="F19" s="0" t="inlineStr">
+      <c r="F37" s="0" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/rc/clk?jk=dd3bea9ff4bbfdd8&amp;fccid=144ad60e18d268b0&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>Full Stack Developer</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
+      <c r="B38" s="0" t="inlineStr">
         <is>
           <t>Transportr.com</t>
         </is>
       </c>
-      <c r="C20" s="0" t="inlineStr">
+      <c r="C38" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D20" s="0" t="inlineStr">
+      <c r="D38" s="0" t="inlineStr">
         <is>
           <t>We are looking for a Full Stack Developer to produce scalable software solutions.
 Of a small experienced team that’s responsible for the full software…</t>
         </is>
       </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Transportr.com/jobs/Full-Stack-Developer-e3cc165a86a49931?fccid=4798e1ba3ba0d986&amp;vjs=3</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>Focus Media Academy</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>Media City</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>Collaborating with the front-end developers and other team members to establish objectives and design more functional, cohesive codes to enhance the user…</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Focus-Academy/jobs/Full-Stack-Developer-a084ce539f3e8da0?fccid=c4d78df3039a64c6&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>Brainstorm Human Resources Consultants</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Senior Backend Developer</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Shaadoow Web Design</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>Proven experience in both front-end and back-end programming.
-Designing user interactions on web pages.
-Developing back-end website applications.</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Brainstorm-Human-Resource-Consultants/jobs/Web-Developer-701a0e37d5f1fe4d?fccid=b0bc31d2ce72d680&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>The contract will be 12 months, extendable and will require onsite presence in UAE.
+Minimum of 5 years of experience as a Senior Backend Developer(PHP).</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>24 days ago</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Shaadoow-Web-Design/jobs/Senior-Backend-Developer-2fc610e35573eae7?fccid=3050515fb97c8120&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Front-End Developer</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Gadzup</t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
       </c>
-      <c r="D23" s="0" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Have Graduation in Computer Science, Engineering or equivalent.
 Have at least 2-3 years' experience in client, UI and back-end engineering.</t>
         </is>
       </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://ae.indeed.com/company/Web-Wiz/jobs/Front-End-Developer-b293e2fa71d76bcb?fccid=4e155c5e33bd967b&amp;vjs=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Back-end Developer (PHP/Laravel/Node.JS/Python)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Resource Log LLC</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Back end PHP developer: 4 years (Required).
-You should have minimum 4 to 8 years of experience as a Band end PHP developer.
-Good Knowledge of MySQL &amp; NoSQL.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/Back-End-Developer-4b99383b3a27e02f?fccid=415cd241779a8615&amp;vjs=3</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,685 +508,568 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr"/>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
+      <c r="E2" s="0" t="inlineStr"/>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-at-creative-zone-2613193658?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=dRXwNQsHVkDELfc8q1tdcw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-interior-define-2625131863?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=mOD9wIkAAFekZ0Shv%2Bm2%2BQ%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Junior PHP Developer</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr"/>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Greenville, SC</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-at-naffco-fzco-2582654452?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=249lhNe%2FOUNSvw3Ukg%2Bnxg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/junior-php-developer-at-find-great-people-2598595837?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=E1OXkwOpfZmNkL4lov5cdg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Junior Software Engineer (Laravel/Vue)</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr"/>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Nashville, TN</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr"/>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-focus-academy-2621312048?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=TmfxvgFBHnBynAOjBerYsg%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/junior-software-engineer-laravel-vue-at-technologyadvice-2625959115?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=wlEYwK0coLFOkzW87bLg%2Fw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Développeur back-end - Node.JS</t>
+          <t>Junior Software Developer</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr"/>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Cedar Rapids, IA</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr"/>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/d%C3%A9veloppeur-back-end-node-js-at-paradox-2532478802?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=CFQi0GeXmStCmFfTU7kabw%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/junior-software-developer-at-iowa-interstate-railroad-2627713370?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=huNXIYA%2BirqWIJu7g3g9uQ%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Portal Development Manager</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr"/>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr"/>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/portal-development-manager-at-bso-2621306782?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=1w6z%2B4ZznzvVkGRRlpU%2F5A%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-newpage-solutions-2631534671?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=1AqEk3T%2BXIFfOxqMnNFBxg%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Web Developer and IT Support Specialist</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr"/>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr"/>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-and-it-support-specialist-at-i-talent-llc-2611815418?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=Ewf1X1Wdi05xQcmPR0vphg%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-inside-real-estate-2612430189?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=PR9KXexmYaDBQTcNAVmgUA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Magento Developer</t>
+          <t>Software Engineers - PHP / Laravel framework</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr"/>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Denver, CO</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr"/>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/magento-developer-at-groupe-rhinos-2584110169?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=AIjrn9y5Vx8ggsdT8WMVyA%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/software-engineers-php-laravel-framework-at-native-rank-2630464746?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=g4TRvoJL%2BUfd6wo70t%2B5Dw%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Tech Lead aspiring Engineering Manager</t>
+          <t>Laravel Back-end web developer (remote)</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr"/>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Home, KS</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr"/>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>4 weeks ago</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/tech-lead-aspiring-engineering-manager-at-paradox-2540758527?refId=OjXmSaiG61U9XOXdmoTPZw%3D%3D&amp;trackingId=zkPF6eRen%2FjIafDa1nHSYw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-back-end-web-developer-remote-at-remotehub-2625407930?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=5UrU%2BK%2BQrVH4whfQjJWqDg%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Senior PHP Developer - Laravel / MySQL</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>Prognica Labs</t>
-        </is>
-      </c>
+          <t>Laravel Back-end web developer (remote)</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr"/>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Should have experience in language like PHP.
-Hands-on experience on MVC Framework Laravel.
-Having experience on AngularJS / ReactJS will be a plus point.</t>
-        </is>
-      </c>
+          <t>Denver, CO</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr"/>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-back-end-web-developer-remote-at-remotehub-2621091777?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=mvmPXc1JFhsU%2FgiirqjcVg%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>We are seeking a Full Stack Developer with SaaS experience.</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Scancruit</t>
-        </is>
-      </c>
+          <t>PHP/Laravel Developer - Telecommute</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr"/>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Grow your skills and build features end-to-end, getting exposure to all layers of stack.
-Minimum 3-5 years of consumer facing application development experience…</t>
-        </is>
-      </c>
+          <t>Herndon, VA</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr"/>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=35380171cff2f957&amp;fccid=7021cc13a0d80157&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-laravel-developer-telecommute-at-optum-2591501202?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=WuHKPV6ZiMpKN2jPqLKl7g%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>ipix solutions</t>
-        </is>
-      </c>
+          <t>Front End Software Engineer - PHP</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr"/>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .
-JS,Node .JS,Vue JS, Jquerry,AJAX , Responsive front end frameworks(e.g Bootstrap),…</t>
-        </is>
-      </c>
+          <t>Clearfield, UT</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr"/>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/front-end-software-engineer-php-at-bonnell-aluminum-2631540496?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=TLFhtq1dSJ5hzjjL2rU5og%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Back-end Developer</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>TenTwenty</t>
-        </is>
-      </c>
+          <t>Full Stack Software Engineers. PHP / Laravel / Javascript / Vue</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr"/>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>A sound understanding of front end web technologies as well.
-Eager to learn, discuss and share knowledge with our development team.</t>
-        </is>
-      </c>
+          <t>Downtown Saint Petersburg, FL</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr"/>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/full-stack-software-engineers-php-laravel-javascript-vue-at-shineon-2629120506?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=ud8HxPDf%2FRpXONK8tarT%2Bg%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>RTC-1 Employment Services</t>
-        </is>
-      </c>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr"/>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Position Title: Web Developer Employment Type: Full Time Salary: up to 8K AED all inclusive depending on experience and qualifications Job Location: Dubai, UAE…</t>
-        </is>
-      </c>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr"/>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=a6460e293343a1c7&amp;fccid=a0f4df2b71213d85&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-developer-at-yay-lunch-2593392494?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=RCzPbAAtB8alzJiF66BN7A%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>28 LIGHTBULBS</t>
-        </is>
-      </c>
+          <t>Web Software Developer</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr"/>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Integration of user-facing elements developed by front-end developers.
-Build efficient, testable, and reusable PHP modules.
-Good Knowledge of MySQL &amp; NoSQL.</t>
-        </is>
-      </c>
+          <t>Richardson, TX</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr"/>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=ba93b8dce75a73af&amp;fccid=c84d6205b9d4151d&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/web-software-developer-at-the-university-of-texas-at-dallas-2591015862?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=bab9mZCsB%2BjTewb6prmW4w%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Drupal/Wordpress PHP Developer</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>Group Three IT Consultants</t>
-        </is>
-      </c>
+          <t>Junior Developer - US (Remote)</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr"/>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Group Three IT Consultants is seeking an experienced Web developer who'll build Websites, SPAs, and Web Applications.
-Fix bugs and issues on existing sites.</t>
-        </is>
-      </c>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr"/>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/junior-developer-us-remote-at-pepper-2562473695?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=rmVULbNfkWhxI1H6pKIHXw%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Software Development Lead</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>First Point Group Ltd</t>
-        </is>
-      </c>
+          <t>PHP Programmer</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr"/>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Ideally have expereince of successful development/launches of applications built using JS libraries/ Escript6 / Vue.js / Firebase/ laravel / flutter.</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr"/>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=771aa13ce046c153&amp;fccid=ca393fdec5169bcb&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-programmer-at-gemini-consulting-services-2629928071?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=6R8FtEWC%2BqPVJ1JPW4DOBw%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>PHP programmer</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>Al Wafaa Group</t>
-        </is>
-      </c>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr"/>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Laravel,PHP,Basic CSS,HTML,Java API.</t>
-        </is>
-      </c>
+          <t>Baltimore, MD</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr"/>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=aad8334ceccc416e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-money-map-press-2485358845?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=fsS2l%2FiAXYQ33EueK3gkvQ%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>Mbr Headhunters</t>
-        </is>
-      </c>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr"/>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>Experience in developing scalable, high -performance web Applications &amp; desktop software.
-Proficient with n-tier application architecture, design, development,…</t>
-        </is>
-      </c>
+          <t>Baltimore, MD</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr"/>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>26 days ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=1817d6b717aa4758&amp;fccid=2e446275f8cd19d2&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-money-map-press-2485363189?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=1yRhOrT9dYRc9IQ2tATonA%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>Talent Arabia</t>
-        </is>
-      </c>
+          <t>Laravel Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr"/>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>Expert in PHP back-end development.
-Good understanding of front-end technologies, including JS Frameworks (AngularJS, ReactJS, &amp; VUEJS).</t>
-        </is>
-      </c>
+          <t>Nashville, TN</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr"/>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=dd3bea9ff4bbfdd8&amp;fccid=144ad60e18d268b0&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/laravel-backend-engineer-at-caredfor-2622820382?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=2G5MyJHBlIz%2BWoEmUtKh3A%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>Transportr.com</t>
-        </is>
-      </c>
+          <t>PHP Engineer</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr"/>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>We are looking for a Full Stack Developer to produce scalable software solutions.
-Of a small experienced team that’s responsible for the full software…</t>
-        </is>
-      </c>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr"/>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Transportr.com/jobs/Full-Stack-Developer-e3cc165a86a49931?fccid=4798e1ba3ba0d986&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/php-engineer-at-processmaker-2626782460?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=YBe5VMX4tA6YGJGq5JDxUg%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Senior Backend Developer</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>Shaadoow Web Design</t>
-        </is>
-      </c>
+          <t>Backend Engineer (PHP/MySQL)</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr"/>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>The contract will be 12 months, extendable and will require onsite presence in UAE.
-Minimum of 5 years of experience as a Senior Backend Developer(PHP).</t>
-        </is>
-      </c>
+          <t>New York, United States</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr"/>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>24 days ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Shaadoow-Web-Design/jobs/Senior-Backend-Developer-2fc610e35573eae7?fccid=3050515fb97c8120&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/backend-engineer-php-mysql-at-refersion-2609731809?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=CBNxhQEB%2BaIpJCwzkjA2qw%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>Gadzup</t>
-        </is>
-      </c>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr"/>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t>Have Graduation in Computer Science, Engineering or equivalent.
-Have at least 2-3 years' experience in client, UI and back-end engineering.</t>
-        </is>
-      </c>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr"/>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Web-Wiz/jobs/Front-End-Developer-b293e2fa71d76bcb?fccid=4e155c5e33bd967b&amp;vjs=3</t>
+          <t>https://www.linkedin.com/jobs/view/backend-developer-at-third-and-grove-2616971182?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=3hc8LGbWhn1xgmX2DoNJew%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Web developer</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Bidincars.com</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Al Qusais</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Create, test and deploy innovative web application in an efficient manner while concurrently working with other developers to meet the specific requirements of…</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/Bidincars.com/jobs/Web-Developer-080a18e1cf14b035?fccid=4c8e0bec509a2141&amp;vjs=3</t>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Mid-Level Developer - Laravel (Remote)</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr"/>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Carlsbad, CA</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr"/>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>3 weeks ago</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/mid-level-developer-laravel-remote-at-hay-house-inc-2589500523?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=TkZ3DOQ29%2FSHShGOhD2ikA%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WordPress Developer - Backend (Remote)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Michigan, United States</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/wordpress-developer-backend-remote-at-liquid-web-2616973026?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=oZuQuXzjCy%2B0L9IUD8G4xA%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,284 +508,272 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr"/>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-interior-define-2625131863?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=mOD9wIkAAFekZ0Shv%2Bm2%2BQ%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/web-developer-at-creative-zone-2613193658?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=O5qabPMf5ZKao0cf1qwXFg%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Junior PHP Developer</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr"/>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Greenville, SC</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>4 weeks ago</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-php-developer-at-find-great-people-2598595837?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=E1OXkwOpfZmNkL4lov5cdg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/web-developer-at-naffco-fzco-2582654452?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=ZcaNvVf6K%2F6qAV%2BaRybQQg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Junior Software Engineer (Laravel/Vue)</t>
+          <t>Back End Developer</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr"/>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Nashville, TN</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr"/>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-software-engineer-laravel-vue-at-technologyadvice-2625959115?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=wlEYwK0coLFOkzW87bLg%2Fw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-agile-consultants-2625815454?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=Td8%2FaHXXiItIfs1WAhy3NA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Junior Software Developer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr"/>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Cedar Rapids, IA</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr"/>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-software-developer-at-iowa-interstate-railroad-2627713370?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=huNXIYA%2BirqWIJu7g3g9uQ%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-focus-academy-2621312048?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=l6d9rzpT6pssmDDt%2FSWGgw%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Développeur back-end - Node.JS</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr"/>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr"/>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>2 months ago</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-newpage-solutions-2631534671?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=1AqEk3T%2BXIFfOxqMnNFBxg%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/d%C3%A9veloppeur-back-end-node-js-at-paradox-2532478802?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=cH6xwJB7Dvw22Y8nFFlAWQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Portal Development Manager</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr"/>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr"/>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-inside-real-estate-2612430189?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=PR9KXexmYaDBQTcNAVmgUA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/portal-development-manager-at-bso-2621306782?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=DB9ZBGPsUSzXf0wPgOsaBg%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Software Engineers - PHP / Laravel framework</t>
+          <t>Magento Developer</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr"/>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Denver, CO</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr"/>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>4 weeks ago</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineers-php-laravel-framework-at-native-rank-2630464746?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=g4TRvoJL%2BUfd6wo70t%2B5Dw%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/magento-developer-at-groupe-rhinos-2584110169?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=JMOPIJbZ6bgAzthl79BZEQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Laravel Back-end web developer (remote)</t>
+          <t>Tech Lead aspiring Engineering Manager</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr"/>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Home, KS</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr"/>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>2 months ago</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-back-end-web-developer-remote-at-remotehub-2625407930?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=5UrU%2BK%2BQrVH4whfQjJWqDg%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/tech-lead-aspiring-engineering-manager-at-paradox-2540758527?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=%2BI5BIO0KSInuw7x1Hsie%2Bw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Laravel Back-end web developer (remote)</t>
+          <t>Senior PHP Developer - Laravel / MySQL</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr"/>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Denver, CO</t>
-        </is>
-      </c>
+      <c r="C10" s="0" t="inlineStr"/>
       <c r="D10" s="0" t="inlineStr"/>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-back-end-web-developer-remote-at-remotehub-2621091777?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=mvmPXc1JFhsU%2FgiirqjcVg%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>PHP/Laravel Developer - Telecommute</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr"/>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>Herndon, VA</t>
-        </is>
-      </c>
+      <c r="C11" s="0" t="inlineStr"/>
       <c r="D11" s="0" t="inlineStr"/>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-laravel-developer-telecommute-at-optum-2591501202?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=WuHKPV6ZiMpKN2jPqLKl7g%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Front End Software Engineer - PHP</t>
+          <t>We are seeking a Full Stack Developer with SaaS experience.</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr"/>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>Clearfield, UT</t>
-        </is>
-      </c>
+      <c r="C12" s="0" t="inlineStr"/>
       <c r="D12" s="0" t="inlineStr"/>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/front-end-software-engineer-php-at-bonnell-aluminum-2631540496?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=TLFhtq1dSJ5hzjjL2rU5og%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=35380171cff2f957&amp;fccid=7021cc13a0d80157&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineers. PHP / Laravel / Javascript / Vue</t>
+          <t>Back-end Developer</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr"/>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>Downtown Saint Petersburg, FL</t>
-        </is>
-      </c>
+      <c r="C13" s="0" t="inlineStr"/>
       <c r="D13" s="0" t="inlineStr"/>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/full-stack-software-engineers-php-laravel-javascript-vue-at-shineon-2629120506?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=ud8HxPDf%2FRpXONK8tarT%2Bg%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>
@@ -796,280 +784,431 @@
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr"/>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+      <c r="C14" s="0" t="inlineStr"/>
       <c r="D14" s="0" t="inlineStr"/>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-developer-at-yay-lunch-2593392494?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=RCzPbAAtB8alzJiF66BN7A%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=ba93b8dce75a73af&amp;fccid=c84d6205b9d4151d&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>Web Software Developer</t>
-        </is>
-      </c>
       <c r="B15" s="0" t="inlineStr"/>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>Richardson, TX</t>
-        </is>
-      </c>
+      <c r="C15" s="0" t="inlineStr"/>
       <c r="D15" s="0" t="inlineStr"/>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/web-software-developer-at-the-university-of-texas-at-dallas-2591015862?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=bab9mZCsB%2BjTewb6prmW4w%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=a6460e293343a1c7&amp;fccid=a0f4df2b71213d85&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Junior Developer - US (Remote)</t>
+          <t>Drupal/Wordpress PHP Developer</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr"/>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>Charlotte, NC</t>
-        </is>
-      </c>
+      <c r="C16" s="0" t="inlineStr"/>
       <c r="D16" s="0" t="inlineStr"/>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-developer-us-remote-at-pepper-2562473695?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=rmVULbNfkWhxI1H6pKIHXw%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>PHP Programmer</t>
+          <t>Software Development Lead</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr"/>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>New York, NY</t>
-        </is>
-      </c>
+      <c r="C17" s="0" t="inlineStr"/>
       <c r="D17" s="0" t="inlineStr"/>
-      <c r="E17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-programmer-at-gemini-consulting-services-2629928071?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=6R8FtEWC%2BqPVJ1JPW4DOBw%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=771aa13ce046c153&amp;fccid=ca393fdec5169bcb&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Laravel Developer</t>
-        </is>
-      </c>
       <c r="B18" s="0" t="inlineStr"/>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>Baltimore, MD</t>
-        </is>
-      </c>
+      <c r="C18" s="0" t="inlineStr"/>
       <c r="D18" s="0" t="inlineStr"/>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-money-map-press-2485358845?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=fsS2l%2FiAXYQ33EueK3gkvQ%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=aad8334ceccc416e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr"/>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>Baltimore, MD</t>
-        </is>
-      </c>
+      <c r="C19" s="0" t="inlineStr"/>
       <c r="D19" s="0" t="inlineStr"/>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>28 days ago</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-developer-at-money-map-press-2485363189?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=1yRhOrT9dYRc9IQ2tATonA%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=1817d6b717aa4758&amp;fccid=2e446275f8cd19d2&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Laravel Backend Engineer</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr"/>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>Nashville, TN</t>
-        </is>
-      </c>
+      <c r="C20" s="0" t="inlineStr"/>
       <c r="D20" s="0" t="inlineStr"/>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/laravel-backend-engineer-at-caredfor-2622820382?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=2G5MyJHBlIz%2BWoEmUtKh3A%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/rc/clk?jk=dd3bea9ff4bbfdd8&amp;fccid=144ad60e18d268b0&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>PHP Engineer</t>
-        </is>
-      </c>
       <c r="B21" s="0" t="inlineStr"/>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>Durham, NC</t>
-        </is>
-      </c>
+      <c r="C21" s="0" t="inlineStr"/>
       <c r="D21" s="0" t="inlineStr"/>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/php-engineer-at-processmaker-2626782460?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=YBe5VMX4tA6YGJGq5JDxUg%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/Transportr.com/jobs/Full-Stack-Developer-e3cc165a86a49931?fccid=4798e1ba3ba0d986&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>Backend Engineer (PHP/MySQL)</t>
-        </is>
-      </c>
       <c r="B22" s="0" t="inlineStr"/>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>New York, United States</t>
-        </is>
-      </c>
+      <c r="C22" s="0" t="inlineStr"/>
       <c r="D22" s="0" t="inlineStr"/>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>Just posted</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/backend-engineer-php-mysql-at-refersion-2609731809?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=CBNxhQEB%2BaIpJCwzkjA2qw%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/Full-Stack-Developer-f467f8844a454ac3?fccid=415cd241779a8615&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>Backend Developer</t>
-        </is>
-      </c>
       <c r="B23" s="0" t="inlineStr"/>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>Boston, MA</t>
-        </is>
-      </c>
+      <c r="C23" s="0" t="inlineStr"/>
       <c r="D23" s="0" t="inlineStr"/>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/backend-developer-at-third-and-grove-2616971182?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=3hc8LGbWhn1xgmX2DoNJew%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/InkMASH/jobs/Full-Stack-PHP-Developer-Strong-Laravel-API-Experience-909cfa0ca3e9e834?fccid=af177f7006244e87&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Mid-Level Developer - Laravel (Remote)</t>
+          <t>Senior Backend Developer</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr"/>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>Carlsbad, CA</t>
-        </is>
-      </c>
+      <c r="C24" s="0" t="inlineStr"/>
       <c r="D24" s="0" t="inlineStr"/>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
+          <t>26 days ago</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/mid-level-developer-laravel-remote-at-hay-house-inc-2589500523?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=TkZ3DOQ29%2FSHShGOhD2ikA%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.indeed.com/company/Shaadoow-Web-Design/jobs/Senior-Backend-Developer-2fc610e35573eae7?fccid=3050515fb97c8120&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>WordPress Developer - Backend (Remote)</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Michigan, United States</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1 month ago</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/wordpress-developer-backend-remote-at-liquid-web-2616973026?refId=ZdGeXXf75ibf9aHB1S78%2FA%3D%3D&amp;trackingId=oZuQuXzjCy%2B0L9IUD8G4xA%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Back-end Developer (PHP/Laravel/Node.JS/Python)</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr"/>
+      <c r="C25" s="0" t="inlineStr"/>
+      <c r="D25" s="0" t="inlineStr"/>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/Back-End-Developer-4b99383b3a27e02f?fccid=415cd241779a8615&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="0" t="inlineStr"/>
+      <c r="C26" s="0" t="inlineStr"/>
+      <c r="D26" s="0" t="inlineStr"/>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Brainstorm-Human-Resources-Consultants/jobs/Web-Developer-701a0e37d5f1fe4d?fccid=b0bc31d2ce72d680&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="0" t="inlineStr"/>
+      <c r="C27" s="0" t="inlineStr"/>
+      <c r="D27" s="0" t="inlineStr"/>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/PHP-Wordpress-Programmer-e5bf45b55a69d151?fccid=415cd241779a8615&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr"/>
+      <c r="C28" s="0" t="inlineStr"/>
+      <c r="D28" s="0" t="inlineStr"/>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>30 days ago</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/CENTURY-FINANCIAL/jobs/Web-Developer-30dac6d408ac0134?fccid=bcbae8ac47184d2d&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="0" t="inlineStr"/>
+      <c r="C29" s="0" t="inlineStr"/>
+      <c r="D29" s="0" t="inlineStr"/>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/OREX-Solar-Energy/jobs/IT-Web-Developer-baf02380a917c09a?fccid=2bee550ffb8b552a&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="0" t="inlineStr"/>
+      <c r="C30" s="0" t="inlineStr"/>
+      <c r="D30" s="0" t="inlineStr"/>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Bidincars.com/jobs/Web-Developer-080a18e1cf14b035?fccid=4c8e0bec509a2141&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="0" t="inlineStr"/>
+      <c r="C31" s="0" t="inlineStr"/>
+      <c r="D31" s="0" t="inlineStr"/>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Handelot-FZC/jobs/Senior-PHP-Developer-2b358e2d9d86d4bd?fccid=40ff66d173f37b67&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr"/>
+      <c r="C32" s="0" t="inlineStr"/>
+      <c r="D32" s="0" t="inlineStr"/>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Via-Dubai/jobs/Senior-Full-Stack-Developer-c3af3abddb9bdbf5?fccid=02c86010add331e5&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="0" t="inlineStr"/>
+      <c r="C33" s="0" t="inlineStr"/>
+      <c r="D33" s="0" t="inlineStr"/>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Rising-Hightech/jobs/Laravel-Developer-c80f5177499dec88?fccid=f0623874aa20f4b0&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="0" t="inlineStr"/>
+      <c r="C34" s="0" t="inlineStr"/>
+      <c r="D34" s="0" t="inlineStr"/>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/I-Book-Holiday/jobs/Senior-Web-Developer-496838da4ec02ad3?fccid=3c439dde7fdfa6c3&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Full Stack Developer - Dubai - 6 Months</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr"/>
+      <c r="C35" s="0" t="inlineStr"/>
+      <c r="D35" s="0" t="inlineStr"/>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>30 days ago</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/P-L-M-E-SOFTWARE-HOUSE-LLC/jobs/Full-Stack-Developer-f1463998ed38a4c2?fccid=456913302166e579&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr"/>
+      <c r="C36" s="0" t="inlineStr"/>
+      <c r="D36" s="0" t="inlineStr"/>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/Grand-Technology/jobs/Front-End-Developer-147c17f66cbf9f98?fccid=871778351f57c254&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="0" t="inlineStr"/>
+      <c r="C37" s="0" t="inlineStr"/>
+      <c r="D37" s="0" t="inlineStr"/>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/28-LIGHTBULBS-Technologies/jobs/PHP-Wordpress-Developer-5e6e28d28daa9c95?fccid=c84d6205b9d4151d&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/company/First-WAP-International-DMCC/jobs/PHP-Developer-f2c8c317fd6384f5?fccid=855d99554d04415f&amp;vjs=3</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>FULL STACK DEVELOPER</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr"/>
@@ -518,21 +518,17 @@
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
+      <c r="E2" s="0" t="inlineStr"/>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-at-creative-zone-2613193658?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=O5qabPMf5ZKao0cf1qwXFg%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-digital-squad-australia-2631931145?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=oVl7VpDueCkEzOScurbnPw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Back End Developer</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr"/>
@@ -544,19 +540,19 @@
       <c r="D3" s="0" t="inlineStr"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-at-naffco-fzco-2582654452?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=ZcaNvVf6K%2F6qAV%2BaRybQQg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-aspire-mena-2630813687?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=OU52J5JeK010Osxcv7etUg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Back End Developer</t>
+          <t>Junior Developer</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr"/>
@@ -568,43 +564,43 @@
       <c r="D4" s="0" t="inlineStr"/>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-agile-consultants-2625815454?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=Td8%2FaHXXiItIfs1WAhy3NA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/junior-developer-at-chalhoub-group-2609233473?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=SgO%2BafoWMuG0woUFrsCTzA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>JUNIOR DEVELOPER - Dubai or Remote</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr"/>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr"/>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-focus-academy-2621312048?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=l6d9rzpT6pssmDDt%2FSWGgw%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/junior-developer-dubai-or-remote-at-cobblestone-energy-2616837676?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=AU%2FFt79AUcc2Onkr4IjxgA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Développeur back-end - Node.JS</t>
+          <t>Full Stack Engineer</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr"/>
@@ -616,19 +612,19 @@
       <c r="D6" s="0" t="inlineStr"/>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/d%C3%A9veloppeur-back-end-node-js-at-paradox-2532478802?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=cH6xwJB7Dvw22Y8nFFlAWQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-engineer-at-klanik-2606377905?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=6ZH0C3FNCWXt6ipNKfcIVw%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Portal Development Manager</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr"/>
@@ -640,19 +636,19 @@
       <c r="D7" s="0" t="inlineStr"/>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/portal-development-manager-at-bso-2621306782?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=DB9ZBGPsUSzXf0wPgOsaBg%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/software-developer-at-dun-bradstreet-south-asia-middle-east-ltd-2630836245?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=Za7Bhy6z%2FbOowdGlCtBbrQ%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Magento Developer</t>
+          <t>Front End Developer</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr"/>
@@ -664,19 +660,19 @@
       <c r="D8" s="0" t="inlineStr"/>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>4 weeks ago</t>
+          <t>1 week ago</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/magento-developer-at-groupe-rhinos-2584110169?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=JMOPIJbZ6bgAzthl79BZEQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/front-end-developer-at-%D8%AF%D8%A8%D9%8A-%D8%A7%D9%84%D8%B0%D9%83%D9%8A%D8%A9-2615996415?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=UvrJ0lt74YuE3HEMw4tnWQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Tech Lead aspiring Engineering Manager</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr"/>
@@ -688,84 +684,116 @@
       <c r="D9" s="0" t="inlineStr"/>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/tech-lead-aspiring-engineering-manager-at-paradox-2540758527?refId=KDMiu2nd26KwBGPnJcFktg%3D%3D&amp;trackingId=%2BI5BIO0KSInuw7x1Hsie%2Bw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-ntamtech-2598020783?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=z9GW1ake7%2BVvhelAAJEICw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Senior PHP Developer - Laravel / MySQL</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr"/>
-      <c r="C10" s="0" t="inlineStr"/>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="D10" s="0" t="inlineStr"/>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=b721c367fb7f4e05&amp;fccid=71590b46c05f8c89&amp;vjs=3</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-creative-technology-solution-2596737192?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=AgMHR2VQZArdKAl4Fukt9A%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Back End Developer</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr"/>
-      <c r="C11" s="0" t="inlineStr"/>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="D11" s="0" t="inlineStr"/>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-iown-group-2594607107?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=1sv2zVDrmLU%2FTw3OWiU9Ig%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>We are seeking a Full Stack Developer with SaaS experience.</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr"/>
-      <c r="C12" s="0" t="inlineStr"/>
-      <c r="D12" s="0" t="inlineStr"/>
+          <t>Junior Developer</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Chalhoub Group</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Our Junior Developer will have a passion for digital learning technology and education.</t>
+        </is>
+      </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=35380171cff2f957&amp;fccid=7021cc13a0d80157&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=1ba5d39196e907f5&amp;fccid=01f47b3f00b281a4&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Back-end Developer</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr"/>
-      <c r="C13" s="0" t="inlineStr"/>
-      <c r="D13" s="0" t="inlineStr"/>
+          <t>IT Technician</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Scientific Analytical Tools</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Rapidly establishing a good working relationship with customers and other professionals, such as software developers;</t>
+        </is>
+      </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
@@ -773,19 +801,31 @@
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=f58903c3e48a9286&amp;fccid=0e0b320a90f3822f&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr"/>
-      <c r="C14" s="0" t="inlineStr"/>
-      <c r="D14" s="0" t="inlineStr"/>
+          <t>Junior Software Developer</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Dotcom Systems</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>C#, VB.net, SQL, Crystal Reports, HTML5, ASP.net, Android, SQL Lite.</t>
+        </is>
+      </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
@@ -793,34 +833,63 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=ba93b8dce75a73af&amp;fccid=c84d6205b9d4151d&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=b6ba5c262223cdb6&amp;fccid=a6e9af6552e4f905&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="0" t="inlineStr"/>
-      <c r="C15" s="0" t="inlineStr"/>
-      <c r="D15" s="0" t="inlineStr"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Web and It Support</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>PRO Consult</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>As a Web and IT Support, you will be responsible for company’s website and providing all support related to IT, Computer hardware and Softwares.</t>
+        </is>
+      </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=a6460e293343a1c7&amp;fccid=a0f4df2b71213d85&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=f3c3abecadea8597&amp;fccid=55c333e3bcc1820f&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Drupal/Wordpress PHP Developer</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr"/>
-      <c r="C16" s="0" t="inlineStr"/>
-      <c r="D16" s="0" t="inlineStr"/>
+          <t>Back-end Developer</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>TenTwenty</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Smart working developer with an eye for detail and following the coding standards.</t>
+        </is>
+      </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
@@ -828,74 +897,127 @@
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0e953b5b01639b87&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Software Development Lead</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr"/>
-      <c r="C17" s="0" t="inlineStr"/>
-      <c r="D17" s="0" t="inlineStr"/>
+          <t>React Native Developer</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>ECS ME LLC</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>We are looking for a React Native developer (with 4-5 Yrs of work exp.).</t>
+        </is>
+      </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=771aa13ce046c153&amp;fccid=ca393fdec5169bcb&amp;vjs=3</t>
+          <t>https://ae.indeed.com/company/ECS-ME-LLC/jobs/React-Native-Developer-2edd107ea5c703fa?fccid=d99f94aeddf34dc7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="0" t="inlineStr"/>
-      <c r="C18" s="0" t="inlineStr"/>
-      <c r="D18" s="0" t="inlineStr"/>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Front-end Developer</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>TenTwenty</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Basic understanding of Sketch and creating assets for the front-end development.</t>
+        </is>
+      </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=aad8334ceccc416e&amp;fccid=92e5bc1ee7cc479a&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=121fb3259e880115&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr"/>
-      <c r="C19" s="0" t="inlineStr"/>
-      <c r="D19" s="0" t="inlineStr"/>
+          <t>Software Developer Trainee (India)</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Metadata</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Need to have basic ASP.</t>
+        </is>
+      </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>28 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=1817d6b717aa4758&amp;fccid=2e446275f8cd19d2&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=07e1a7df822e3846&amp;fccid=6c72041b951272af&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr"/>
-      <c r="C20" s="0" t="inlineStr"/>
-      <c r="D20" s="0" t="inlineStr"/>
+          <t>Oracle Developer</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Emirates Driving Institute (EDI)</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Minimum 4 years of experience in writing &amp; turning Oracle SQL and PL/SQL.</t>
+        </is>
+      </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
@@ -903,84 +1025,159 @@
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=dd3bea9ff4bbfdd8&amp;fccid=144ad60e18d268b0&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=2a37a183702d4de3&amp;fccid=b3180e8cd43ce258&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="0" t="inlineStr"/>
-      <c r="C21" s="0" t="inlineStr"/>
-      <c r="D21" s="0" t="inlineStr"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Backend Developer - UAE</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Snowfall</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Mentor and coach other backend developers within the team.</t>
+        </is>
+      </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Transportr.com/jobs/Full-Stack-Developer-e3cc165a86a49931?fccid=4798e1ba3ba0d986&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=635918f81ffcfe00&amp;fccid=481367240ce1ecca&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="0" t="inlineStr"/>
-      <c r="C22" s="0" t="inlineStr"/>
-      <c r="D22" s="0" t="inlineStr"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>front-end developer</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>PSdigital</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Collaborate and Support with Back-end developers and Solve problems.</t>
+        </is>
+      </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/Full-Stack-Developer-f467f8844a454ac3?fccid=415cd241779a8615&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=4db438e90c517437&amp;fccid=2f136e3ccf030f0e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="0" t="inlineStr"/>
-      <c r="C23" s="0" t="inlineStr"/>
-      <c r="D23" s="0" t="inlineStr"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft DotNet Developer</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>eVision IT Solution</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Net developer responsible for building applications.</t>
+        </is>
+      </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/InkMASH/jobs/Full-Stack-PHP-Developer-Strong-Laravel-API-Experience-909cfa0ca3e9e834?fccid=af177f7006244e87&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=7cfdf7f87f405610&amp;fccid=a67dd580ec839de8&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Senior Backend Developer</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr"/>
-      <c r="C24" s="0" t="inlineStr"/>
-      <c r="D24" s="0" t="inlineStr"/>
+          <t>Node JS Developer</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Raqmiyat</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Strong understanding of JavaScript/Object-Oriented JS, its quirks, and workarounds • Must have a working knowledge of Node JS • Must know anyone Node JS…</t>
+        </is>
+      </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>26 days ago</t>
+          <t>27 days ago</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Shaadoow-Web-Design/jobs/Senior-Backend-Developer-2fc610e35573eae7?fccid=3050515fb97c8120&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=aff4b6fde4b96da1&amp;fccid=7afa5fdaf37013fe&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Back-end Developer (PHP/Laravel/Node.JS/Python)</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr"/>
-      <c r="C25" s="0" t="inlineStr"/>
-      <c r="D25" s="0" t="inlineStr"/>
+          <t>Sr. Andorid Developer</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>We offer a full range of professional service to retailers.</t>
+        </is>
+      </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
@@ -988,114 +1185,223 @@
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/Back-End-Developer-4b99383b3a27e02f?fccid=415cd241779a8615&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=63cbb8c6572845d6&amp;fccid=24491e08f76aeae2&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="0" t="inlineStr"/>
-      <c r="C26" s="0" t="inlineStr"/>
-      <c r="D26" s="0" t="inlineStr"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Scientific Analytical Tools</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Work with API developers across the teams to Design/build new API features at large-scale.</t>
+        </is>
+      </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>8 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Brainstorm-Human-Resources-Consultants/jobs/Web-Developer-701a0e37d5f1fe4d?fccid=b0bc31d2ce72d680&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=e769bfff72e312be&amp;fccid=0e0b320a90f3822f&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="0" t="inlineStr"/>
-      <c r="C27" s="0" t="inlineStr"/>
-      <c r="D27" s="0" t="inlineStr"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>ASP.Net Developer</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>MicroVision</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Providing on-going support and development in ASP.Net.</t>
+        </is>
+      </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Resource-Log-LLC/jobs/PHP-Wordpress-Programmer-e5bf45b55a69d151?fccid=415cd241779a8615&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=772e502b6378bb7e&amp;fccid=1e10041bb2747ae8&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr"/>
-      <c r="C28" s="0" t="inlineStr"/>
-      <c r="D28" s="0" t="inlineStr"/>
+          <t>Waiter / Waitress</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>RBnH Solutions</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>You will be a vital part in delivering an unrivaled customer experience on a daily basis.</t>
+        </is>
+      </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>30 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/CENTURY-FINANCIAL/jobs/Web-Developer-30dac6d408ac0134?fccid=bcbae8ac47184d2d&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=64bd894a16a530d6&amp;fccid=b7497ab89d75ef81&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="0" t="inlineStr"/>
-      <c r="C29" s="0" t="inlineStr"/>
-      <c r="D29" s="0" t="inlineStr"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>.NET Developer</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Group Three IT Consultants</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>NET developer who can build powerful desktop/web-based application using Microsoft .</t>
+        </is>
+      </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/OREX-Solar-Energy/jobs/IT-Web-Developer-baf02380a917c09a?fccid=2bee550ffb8b552a&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=a966814adba1d4ae&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="0" t="inlineStr"/>
-      <c r="C30" s="0" t="inlineStr"/>
-      <c r="D30" s="0" t="inlineStr"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPER</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Grow Combine</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Seeking web developers with extensive knowledge in designing, coding and modifying websites, from layout to function according to a client's specifications and…</t>
+        </is>
+      </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Bidincars.com/jobs/Web-Developer-080a18e1cf14b035?fccid=4c8e0bec509a2141&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=5d321abf7438d6e0&amp;fccid=01eb65a25f8a625a&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="0" t="inlineStr"/>
-      <c r="C31" s="0" t="inlineStr"/>
-      <c r="D31" s="0" t="inlineStr"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Front-End Web Developer</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Abbrevia</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Minimum 3 years of RELEVANT experience.</t>
+        </is>
+      </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Handelot-FZC/jobs/Senior-PHP-Developer-2b358e2d9d86d4bd?fccid=40ff66d173f37b67&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=99676b641806bd1d&amp;fccid=69faf3b8ead09344&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Senior Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr"/>
-      <c r="C32" s="0" t="inlineStr"/>
-      <c r="D32" s="0" t="inlineStr"/>
+          <t>Team Leader, IT Quality Assurance</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Commercial Bank of Dubai</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Create documentation to show issues which goes to the developers to resolve and re-testing as required.</t>
+        </is>
+      </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
@@ -1103,69 +1409,127 @@
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Via-Dubai/jobs/Senior-Full-Stack-Developer-c3af3abddb9bdbf5?fccid=02c86010add331e5&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=bb95d421e578aab3&amp;fccid=3eaa98a640f7774c&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="0" t="inlineStr"/>
-      <c r="C33" s="0" t="inlineStr"/>
-      <c r="D33" s="0" t="inlineStr"/>
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>NODE JS Developer</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>BFL Group</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Participate in support activities to help UI developers integrate with RESTful services.</t>
+        </is>
+      </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Rising-Hightech/jobs/Laravel-Developer-c80f5177499dec88?fccid=f0623874aa20f4b0&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=42b6a03895bbb4dc&amp;fccid=c1762dfe22706976&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="0" t="inlineStr"/>
-      <c r="C34" s="0" t="inlineStr"/>
-      <c r="D34" s="0" t="inlineStr"/>
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Web Front-End Developer</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Group Three IT Consultants</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>HTML5, Javascript (plain + libraries), CSS3, and using them efficiently.</t>
+        </is>
+      </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/I-Book-Holiday/jobs/Senior-Web-Developer-496838da4ec02ad3?fccid=3c439dde7fdfa6c3&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=46beea82aa17765d&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Developer - Dubai - 6 Months</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="inlineStr"/>
-      <c r="C35" s="0" t="inlineStr"/>
-      <c r="D35" s="0" t="inlineStr"/>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>ipix solutions</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .</t>
+        </is>
+      </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>30 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/P-L-M-E-SOFTWARE-HOUSE-LLC/jobs/Full-Stack-Developer-f1463998ed38a4c2?fccid=456913302166e579&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>Front End Developer</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="inlineStr"/>
-      <c r="C36" s="0" t="inlineStr"/>
-      <c r="D36" s="0" t="inlineStr"/>
+          <t>Sr. Microservices Developer</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>PIVOT technologies</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Minimum 5 years hands on experience designing and developing microservices using either Java/Spring Boot with Java 8/9.</t>
+        </is>
+      </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
           <t>30+ days ago</t>
@@ -1173,42 +1537,167 @@
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/Grand-Technology/jobs/Front-End-Developer-147c17f66cbf9f98?fccid=871778351f57c254&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=455d95de7543b78a&amp;fccid=8c761ed5a3ba7e1b&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="0" t="inlineStr"/>
-      <c r="C37" s="0" t="inlineStr"/>
-      <c r="D37" s="0" t="inlineStr"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>SFCC - Front End Developer</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Chalhoub Group</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Build cross-browser, cross-device compatible pages adhering to industry best practices.</t>
+        </is>
+      </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>7 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/28-LIGHTBULBS-Technologies/jobs/PHP-Wordpress-Developer-5e6e28d28daa9c95?fccid=c84d6205b9d4151d&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=0aaf0c7e90db7879&amp;fccid=01f47b3f00b281a4&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/company/First-WAP-International-DMCC/jobs/PHP-Developer-f2c8c317fd6384f5?fccid=855d99554d04415f&amp;vjs=3</t>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Javascript Developer</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Raqmiyat</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>Responsibilities will include implementing visual elements and their behaviors with user interactions • You will work with both front-end and back-end web…</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=4d7c2222dc90f969&amp;fccid=7afa5fdaf37013fe&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>ANDROID DEVELOPER</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Grow Combine</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>At Grow, we are in need of a Senior-level Android Developer to build out highly-viewed; impeccably-designed engaging Android applications and you have an…</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=8b1c7e881897e048&amp;fccid=01eb65a25f8a625a&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>ERP Developer</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Kitopi</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>As Kitopi’s Technical Developer, you will be confident consultative responsible for designing and implementing system solutions and be able to gather…</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=6bdfe9809531c802&amp;fccid=ed1f012bc9c5fc56&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Senior Front-end Developer</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TenTwenty</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>We are looking to fill a full-time position both on site and remote working is possible.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30+ days ago</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://ae.indeed.com/rc/clk?jk=7dd5bd76c065f8d3&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -465,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +510,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>FULL STACK DEVELOPER</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr"/>
@@ -521,14 +523,14 @@
       <c r="E2" s="0" t="inlineStr"/>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-digital-squad-australia-2631931145?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=oVl7VpDueCkEzOScurbnPw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/developer-at-eben-work-2633100717?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=vJsEXdfDSMkObqn84Shnyg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Back End Developer</t>
+          <t>React Developer-Remote</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr"/>
@@ -538,93 +540,85 @@
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
+      <c r="E3" s="0" t="inlineStr"/>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-aspire-mena-2630813687?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=OU52J5JeK010Osxcv7etUg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/react-developer-remote-at-aiqu-2628542439?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=CgIaP3tth8uf8kGEGb6NDA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Junior Developer</t>
+          <t>FULL STACK DEVELOPER</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr"/>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>2 weeks ago</t>
-        </is>
-      </c>
+      <c r="E4" s="0" t="inlineStr"/>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/junior-developer-at-chalhoub-group-2609233473?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=SgO%2BafoWMuG0woUFrsCTzA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-digital-squad-australia-2631931145?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=mf5LlhV%2FJta2Oh0k2dLeaA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>JUNIOR DEVELOPER - Dubai or Remote</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr"/>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr"/>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>1 month ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/junior-developer-dubai-or-remote-at-cobblestone-energy-2616837676?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=AU%2FFt79AUcc2Onkr4IjxgA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/software-developer-at-dun-bradstreet-south-asia-middle-east-ltd-2630836245?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=lYE79PyLlYwDMmk8q70%2F2g%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Engineer</t>
+          <t>JUNIOR DEVELOPER - Dubai or Remote</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr"/>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr"/>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-engineer-at-klanik-2606377905?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=6ZH0C3FNCWXt6ipNKfcIVw%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/junior-developer-dubai-or-remote-at-cobblestone-energy-2616837676?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=DIBRmpQ1AisjqNG8gl0Lng%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Back End Developer</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr"/>
@@ -641,14 +635,14 @@
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/software-developer-at-dun-bradstreet-south-asia-middle-east-ltd-2630836245?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=Za7Bhy6z%2FbOowdGlCtBbrQ%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-aspire-mena-2630813687?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=O77IKPzfjEoHvKhhJf8ksg%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Front End Developer</t>
+          <t>Junior Developer</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr"/>
@@ -660,19 +654,19 @@
       <c r="D8" s="0" t="inlineStr"/>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>1 week ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/front-end-developer-at-%D8%AF%D8%A8%D9%8A-%D8%A7%D9%84%D8%B0%D9%83%D9%8A%D8%A9-2615996415?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=UvrJ0lt74YuE3HEMw4tnWQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/junior-developer-at-chalhoub-group-2609224500?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=wod9jIZrjyxB6t8c%2FlQmhw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Dev Engineer (Backend)</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr"/>
@@ -684,19 +678,19 @@
       <c r="D9" s="0" t="inlineStr"/>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-ntamtech-2598020783?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=z9GW1ake7%2BVvhelAAJEICw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/dev-engineer-backend-at-mashreq-bank-2578970273?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=tlObF8MLKQuGGOXLbCpnJg%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Pytorch developer</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr"/>
@@ -706,21 +700,17 @@
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>3 weeks ago</t>
-        </is>
-      </c>
+      <c r="E10" s="0" t="inlineStr"/>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-creative-technology-solution-2596737192?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=AgMHR2VQZArdKAl4Fukt9A%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/pytorch-developer-at-business-umbrella-recruitment-training-consulting-2631972593?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=TAiF4HZ5MVHgeZ8YBU111w%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Back End Developer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr"/>
@@ -732,108 +722,84 @@
       <c r="D11" s="0" t="inlineStr"/>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-iown-group-2594607107?refId=ieeFurlekIzfvvNO4EJ7cQ%3D%3D&amp;trackingId=1sv2zVDrmLU%2FTw3OWiU9Ig%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-one-com-2622595479?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=LKuA0h9nqgVOOsYrke0xFg%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Junior Developer</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>Chalhoub Group</t>
-        </is>
-      </c>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr"/>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Our Junior Developer will have a passion for digital learning technology and education.</t>
-        </is>
-      </c>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr"/>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=1ba5d39196e907f5&amp;fccid=01f47b3f00b281a4&amp;vjs=3</t>
+          <t>https://ae.linkedin.com/jobs/view/web-developer-at-creative-zone-2613193658?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=9zjeVh6reN%2FSBYHru0M7dQ%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>IT Technician</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>Scientific Analytical Tools</t>
-        </is>
-      </c>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr"/>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Rapidly establishing a good working relationship with customers and other professionals, such as software developers;</t>
-        </is>
-      </c>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr"/>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=f58903c3e48a9286&amp;fccid=0e0b320a90f3822f&amp;vjs=3</t>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-green-life-marketing-2622587830?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=ZpNa8z8RzWR9ZsYMo9UqtA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Junior Software Developer</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>Dotcom Systems</t>
-        </is>
-      </c>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr"/>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>C#, VB.net, SQL, Crystal Reports, HTML5, ASP.net, Android, SQL Lite.</t>
-        </is>
-      </c>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr"/>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=b6ba5c262223cdb6&amp;fccid=a6e9af6552e4f905&amp;vjs=3</t>
+          <t>https://ae.linkedin.com/jobs/view/software-developer-at-element-materials-technology-2596932004?refId=bwaj88PfySfwGJGFeeuorw%3D%3D&amp;trackingId=s4S7OlXBO%2F9QmTs%2BY%2Fspeg%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
@@ -872,12 +838,12 @@
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Back-end Developer</t>
+          <t>Junior Software Developer</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>TenTwenty</t>
+          <t>Dotcom Systems</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -887,7 +853,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Smart working developer with an eye for detail and following the coding standards.</t>
+          <t>C#, VB.net, SQL, Crystal Reports, HTML5, ASP.net, Android, SQL Lite.</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
@@ -897,19 +863,19 @@
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=b6ba5c262223cdb6&amp;fccid=a6e9af6552e4f905&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>IT Technician</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>ECS ME LLC</t>
+          <t>Scientific Analytical Tools</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -919,29 +885,29 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>We are looking for a React Native developer (with 4-5 Yrs of work exp.).</t>
+          <t>Rapidly establishing a good working relationship with customers and other professionals, such as software developers;</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/company/ECS-ME-LLC/jobs/React-Native-Developer-2edd107ea5c703fa?fccid=d99f94aeddf34dc7&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=f58903c3e48a9286&amp;fccid=0e0b320a90f3822f&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Front-end Developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>TenTwenty</t>
+          <t>Scientific Analytical Tools</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -951,7 +917,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Basic understanding of Sketch and creating assets for the front-end development.</t>
+          <t>Work with API developers across the teams to Design/build new API features at large-scale.</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -961,19 +927,19 @@
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=121fb3259e880115&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=e769bfff72e312be&amp;fccid=0e0b320a90f3822f&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Software Developer Trainee (India)</t>
+          <t>Helpdesk Administrator II</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Metadata</t>
+          <t>Talabat</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -983,7 +949,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Need to have basic ASP.</t>
+          <t>Analyse user requirements and troubleshoot desktop and user end problems.</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -993,19 +959,19 @@
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=07e1a7df822e3846&amp;fccid=6c72041b951272af&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=1d8cd0dd8ced04cc&amp;fccid=8948005a95e365ae&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Oracle Developer</t>
+          <t>Front-end Developer</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Emirates Driving Institute (EDI)</t>
+          <t>TenTwenty</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1015,7 +981,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Minimum 4 years of experience in writing &amp; turning Oracle SQL and PL/SQL.</t>
+          <t>Basic understanding of Sketch and creating assets for the front-end development.</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -1025,51 +991,51 @@
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=2a37a183702d4de3&amp;fccid=b3180e8cd43ce258&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=121fb3259e880115&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Backend Developer - UAE</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Snowfall</t>
+          <t>Zayed University</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Dubai•Remote</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Mentor and coach other backend developers within the team.</t>
+          <t>The Information Technology Department seeks an incumbent for the position of Web Developer to analyze, develop and support software solutions for academic and…</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=635918f81ffcfe00&amp;fccid=481367240ce1ecca&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=123a8d6b34fce6e9&amp;fccid=9628b0bd10bde506&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>front-end developer</t>
+          <t>Back-end Developer</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>PSdigital</t>
+          <t>TenTwenty</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1079,7 +1045,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Collaborate and Support with Back-end developers and Solve problems.</t>
+          <t>Smart working developer with an eye for detail and following the coding standards.</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1089,19 +1055,19 @@
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=4db438e90c517437&amp;fccid=2f136e3ccf030f0e&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=96ed662a940490b1&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Microsoft DotNet Developer</t>
+          <t>Front-End Web Developer</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>eVision IT Solution</t>
+          <t>Abbrevia</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1111,7 +1077,7 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Net developer responsible for building applications.</t>
+          <t>Minimum 3 years of RELEVANT experience.</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
@@ -1121,19 +1087,19 @@
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=7cfdf7f87f405610&amp;fccid=a67dd580ec839de8&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=99676b641806bd1d&amp;fccid=69faf3b8ead09344&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Node JS Developer</t>
+          <t>Software Developer Trainee (India)</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Raqmiyat</t>
+          <t>Metadata</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1143,29 +1109,29 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Strong understanding of JavaScript/Object-Oriented JS, its quirks, and workarounds • Must have a working knowledge of Node JS • Must know anyone Node JS…</t>
+          <t>Need to have basic ASP.</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=aff4b6fde4b96da1&amp;fccid=7afa5fdaf37013fe&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=07e1a7df822e3846&amp;fccid=6c72041b951272af&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Sr. Andorid Developer</t>
+          <t>Team Leader, IT Quality Assurance</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Pegasus</t>
+          <t>Commercial Bank of Dubai</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1175,7 +1141,7 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>We offer a full range of professional service to retailers.</t>
+          <t>Create documentation to show issues which goes to the developers to resolve and re-testing as required.</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -1185,19 +1151,19 @@
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=63cbb8c6572845d6&amp;fccid=24491e08f76aeae2&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=bb95d421e578aab3&amp;fccid=3eaa98a640f7774c&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Commercial Graduate Trainee 2021</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Scientific Analytical Tools</t>
+          <t>L'Oreal</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1207,29 +1173,29 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Work with API developers across the teams to Design/build new API features at large-scale.</t>
+          <t>This role reports to the Sales Manager.</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=e769bfff72e312be&amp;fccid=0e0b320a90f3822f&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=923b24d6ef9dfc1e&amp;fccid=ec8a0bd60be9a6f5&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>ASP.Net Developer</t>
+          <t>front-end developer</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>MicroVision</t>
+          <t>PSdigital</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1239,7 +1205,7 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>Providing on-going support and development in ASP.Net.</t>
+          <t>Collaborate and Support with Back-end developers and Solve problems.</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
@@ -1249,19 +1215,19 @@
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=772e502b6378bb7e&amp;fccid=1e10041bb2747ae8&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=4db438e90c517437&amp;fccid=2f136e3ccf030f0e&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Waiter / Waitress</t>
+          <t>IT Infrastructure Engineer II</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>RBnH Solutions</t>
+          <t>Talabat</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -1271,29 +1237,29 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>You will be a vital part in delivering an unrivaled customer experience on a daily basis.</t>
+          <t>As an IT Infrastructure Engineer II, you will provide IT technical support by setting up Intranets or network systems within a company and configure routers and…</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=64bd894a16a530d6&amp;fccid=b7497ab89d75ef81&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=765974460dcb49cc&amp;fccid=8948005a95e365ae&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>React Native Developer</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Group Three IT Consultants</t>
+          <t>ECS ME LLC</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -1303,24 +1269,24 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>NET developer who can build powerful desktop/web-based application using Microsoft .</t>
+          <t>We are looking for a React Native developer (with 4-5 Yrs of work exp.).</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=a966814adba1d4ae&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
+          <t>https://ae.indeed.com/company/ECS-ME-LLC/jobs/React-Native-Developer-2edd107ea5c703fa?fccid=d99f94aeddf34dc7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>WEB DEVELOPER</t>
+          <t>ANDROID DEVELOPER</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
@@ -1335,7 +1301,7 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>Seeking web developers with extensive knowledge in designing, coding and modifying websites, from layout to function according to a client's specifications and…</t>
+          <t>At Grow, we are in need of a Senior-level Android Developer to build out highly-viewed; impeccably-designed engaging Android applications and you have an…</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
@@ -1345,19 +1311,19 @@
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=5d321abf7438d6e0&amp;fccid=01eb65a25f8a625a&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=8b1c7e881897e048&amp;fccid=01eb65a25f8a625a&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Front-End Web Developer</t>
+          <t>Android Developer</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Abbrevia</t>
+          <t>24 Messenger</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -1367,7 +1333,7 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>Minimum 3 years of RELEVANT experience.</t>
+          <t>Designing and developing advanced applications for the Android platform.</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
@@ -1377,19 +1343,19 @@
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=99676b641806bd1d&amp;fccid=69faf3b8ead09344&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=8f3fef55b1cdca06&amp;fccid=0a215426341c0c40&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Team Leader, IT Quality Assurance</t>
+          <t>Business Analyst - 806510</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Commercial Bank of Dubai</t>
+          <t>Halian</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -1399,29 +1365,29 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>Create documentation to show issues which goes to the developers to resolve and re-testing as required.</t>
+          <t>Work closely with database developers to improve reporting automation and quality of reports.</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>30+ days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=bb95d421e578aab3&amp;fccid=3eaa98a640f7774c&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=61c595a0bf276994&amp;fccid=36028905bb7e7da7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>NODE JS Developer</t>
+          <t>WEB DEVELOPER</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>BFL Group</t>
+          <t>Grow Combine</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -1431,7 +1397,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>Participate in support activities to help UI developers integrate with RESTful services.</t>
+          <t>Seeking web developers with extensive knowledge in designing, coding and modifying websites, from layout to function according to a client's specifications and…</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1441,19 +1407,19 @@
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=42b6a03895bbb4dc&amp;fccid=c1762dfe22706976&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=5d321abf7438d6e0&amp;fccid=01eb65a25f8a625a&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Web Front-End Developer</t>
+          <t>ASP.Net Developer</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Group Three IT Consultants</t>
+          <t>MicroVision</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -1463,7 +1429,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>HTML5, Javascript (plain + libraries), CSS3, and using them efficiently.</t>
+          <t>Providing on-going support and development in ASP.Net.</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1473,19 +1439,19 @@
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=46beea82aa17765d&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=772e502b6378bb7e&amp;fccid=1e10041bb2747ae8&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Android Developer</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>ipix solutions</t>
+          <t>S4M</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
@@ -1495,7 +1461,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>Knowledge is a must), My SQL, MS SQL,Mongo DB,AWS,Agile ,Javascript,React .</t>
+          <t>This includes everything from pixel perfect UI implementations to performance optimization, API implementation and bug hunting.</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1505,19 +1471,19 @@
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=6dab182edd88b96f&amp;fccid=a4a6d84f02499146&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=f6c6548edc4e24ef&amp;fccid=2bfdb4de8725be20&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>Sr. Microservices Developer</t>
+          <t>Java Developer</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>PIVOT technologies</t>
+          <t>S4M</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -1527,7 +1493,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>Minimum 5 years hands on experience designing and developing microservices using either Java/Spring Boot with Java 8/9.</t>
+          <t>Candidate should have strong academic background in the area of Computer Sciences/Engineering or equivalent studies, 1-2 years working experience in software…</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1537,19 +1503,19 @@
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=455d95de7543b78a&amp;fccid=8c761ed5a3ba7e1b&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=ebbd6d8b288c2fe2&amp;fccid=2bfdb4de8725be20&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>SFCC - Front End Developer</t>
+          <t>DOT NET Developer</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Chalhoub Group</t>
+          <t>BFL Group</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -1559,7 +1525,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>Build cross-browser, cross-device compatible pages adhering to industry best practices.</t>
+          <t>Develop and maintain high traffic / high performance web applications, web services.</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -1569,19 +1535,19 @@
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=0aaf0c7e90db7879&amp;fccid=01f47b3f00b281a4&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=d58c9aee48eb3af4&amp;fccid=c1762dfe22706976&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Javascript Developer</t>
+          <t>Account Executive - Dubai Lifestyle Membership</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Raqmiyat</t>
+          <t>The First Group</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
@@ -1591,29 +1557,29 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>Responsibilities will include implementing visual elements and their behaviors with user interactions • You will work with both front-end and back-end web…</t>
+          <t>Range – Salary + Industry leading commission + Attractive cash bonus awards.</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=4d7c2222dc90f969&amp;fccid=7afa5fdaf37013fe&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=95508b21d508df83&amp;fccid=41c288f1f3f51803&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>ANDROID DEVELOPER</t>
+          <t>Web Front-End Developer</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Grow Combine</t>
+          <t>Group Three IT Consultants</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -1623,7 +1589,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>At Grow, we are in need of a Senior-level Android Developer to build out highly-viewed; impeccably-designed engaging Android applications and you have an…</t>
+          <t>HTML5, Javascript (plain + libraries), CSS3, and using them efficiently.</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1633,19 +1599,19 @@
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=8b1c7e881897e048&amp;fccid=01eb65a25f8a625a&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=46beea82aa17765d&amp;fccid=01fa4c4529403dd7&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>ERP Developer</t>
+          <t>Sitecore Lead Developer</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Kitopi</t>
+          <t>eVision IT Solution</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
@@ -1655,53 +1621,337 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>As Kitopi’s Technical Developer, you will be confident consultative responsible for designing and implementing system solutions and be able to gather…</t>
+          <t>The Senior Sitecore Developer should have experience in the following management and technical areas:</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>https://ae.indeed.com/rc/clk?jk=6bdfe9809531c802&amp;fccid=ed1f012bc9c5fc56&amp;vjs=3</t>
+          <t>https://ae.indeed.com/rc/clk?jk=c1358bcea868b924&amp;fccid=a67dd580ec839de8&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Senior Front-end Developer</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TenTwenty</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>We are looking to fill a full-time position both on site and remote working is possible.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>https://ae.indeed.com/rc/clk?jk=7dd5bd76c065f8d3&amp;fccid=559e98f2d4dfbf56&amp;vjs=3</t>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Front End Designer/Developer</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Holo</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr"/>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>150 days ago</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/front-end-designer-developer-313090</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Magento 2 Developer / Config / Bug Fixing</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>eMagine Solutions</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr"/>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>105 days ago</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/magento-2-developer-config-bug-fixing_315841</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Senior Application Developer (ASP.Net Core)</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Refinitiv</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Beirut, Lebanon</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr"/>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>86 days ago</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/lebanon/jobs/senior-application-developer-asp-net-core-316773</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Arab Payment Services (APS)</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr"/>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>58 days ago</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/backend-developer-317833</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>MERN Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Consult Arabia</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr"/>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>87 days ago</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/mern-full-stack-developer-316738</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Angular/Node.js Developer</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Ignite Search &amp; Selection</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr"/>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>79 days ago</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/angular-node-js-developer-317000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>PHP Developer with Python</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Ignite Search &amp; Selection</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr"/>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>79 days ago</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/php-developer-with-python-317002</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Arab Payment Services (APS)</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr"/>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>58 days ago</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/full-stack-developer-317835</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Programmer/Developer</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Convilguous DWC-LLC</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr"/>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>132 days ago</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/programmer-developer-314427</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Front-End Developer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>iOWN Group</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>126 days ago</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.gulftalent.com/uae/jobs/front-end-developer-314649</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -2,24 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -27,36 +24,10 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,37 +47,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Heading" xfId="6"/>
-    <cellStyle name="Heading1" xfId="7"/>
-    <cellStyle name="Result" xfId="8"/>
-    <cellStyle name="Result2" xfId="9"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -467,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,258 +434,455 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>JobTitle</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Summary</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>PostDate</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>JobUrl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>PHP programmer</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr"/>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr"/>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/php-programmer-at-alwafaa-dubai-2025221097?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=9JNvD6gYq%2BXngs1q0b1x7Q%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>React Developer-Remote</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/react-developer-remote-at-aiqu-2628542439?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=KVVpJc3nB18Ro0W7SSfKKA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/front-end-developer-at-%D8%AF%D8%A8%D9%8A-%D8%A7%D9%84%D8%B0%D9%83%D9%8A%D8%A9-2615996415?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=%2FpBDFB5gFOcWdrVyYY0n4Q%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>React.js - Frontend Engineer | Immediate Hire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/react-js-frontend-engineer-immediate-hire-at-tech-unicorn-2621770942?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=ezMp12JgGAdoGAabGbcE0w%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Frontend Developer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/frontend-developer-at-360vuz-teleporter-%E2%84%A2-2609229374?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=GI2EQWIt96KqetC4jexxRA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Javascript Developer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/javascript-developer-at-aiqu-2567801959?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=N3cLGwchehlTKhKpw9Tc4Q%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Web Developer</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr"/>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>6 days ago</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-at-creative-zone-2613193658?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=2OmbaTJGPAXV3ZD%2Fo%2FHO9A%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr"/>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr"/>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-web-developer-at-nathan-nathan-2628539075?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=XGyC9QBWrTBgpLGrNbUYxQ%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Back End Developer</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr"/>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/web-developer-at-nathan-nathan-2628535700?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=naiwdb%2F1d1cdfkrql5yGZw%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Junior System Integrator (Front-end Developer)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Dubai, Dubai, United Arab Emirates</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>2 days ago</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-agile-consultants-2625815454?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=4GMVuCmpibl9cq13bRZO7A%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Développeur back-end - Node.JS</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr"/>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>2 months ago</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/d%C3%A9veloppeur-back-end-node-js-at-paradox-2532478802?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=Di%2FjKkaR2IFPCurC0qhg3Q%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Portal Development Manager</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr"/>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>1 week ago</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/portal-development-manager-at-bso-2621306782?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=MmasR%2FkaxlXVxkHE7P%2BWag%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>Magento Developer</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr"/>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>4 weeks ago</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/magento-developer-at-groupe-rhinos-2584110169?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=s0b%2Fn48u0g5GF1ROqao5jA%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/junior-system-integrator-front-end-developer-at-diebold-nixdorf-2484008142?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=EQFs2SsA8xIl%2F0xHsElPZA%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tech Lead aspiring Engineering Manager</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Frontend Engineer (React/React Native)</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/tech-lead-aspiring-engineering-manager-at-paradox-2540758527?refId=Hx5QFNejJAKEHIucegtU8Q%3D%3D&amp;trackingId=h0FaUcU0ubqHweAQcroC9Q%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://ae.linkedin.com/jobs/view/frontend-engineer-react-react-native-at-arc-talent-2583494678?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=%2FiCmRaJLtQUN1sZtIDlY8g%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/software-developer-at-nathan-nathan-2628532761?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=j7hJNu9GI3%2B7GjZpqHM38g%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ReactNative Developer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/reactnative-developer-at-techcarrot-2634718262?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=oyJbiqRSSK3PXSUc9CH28A%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Front end Developer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/front-end-developer-at-gulf-career-hunt-2617200226?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=s8p%2FJRr98E6sXSrJoLhLbQ%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/senior-web-developer-at-rtc1-recruitment-services-2632515614?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=jK%2B%2BLvLI8zhO4edWn2EkwA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dev Engineer (Backend)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/dev-engineer-backend-at-mashreq-bank-2578970273?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=L9693c0pqZ6x3FLE4%2BfwJQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Front End Developer- Vue. JS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/front-end-developer-vue-js-at-datailer-technologies-2627659910?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=%2BVpIvuSKLbw0VRF8SttobQ%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Frontend Developer - HTML/CSS/React/Angular/Docker - Dubai Location</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/frontend-developer-html-css-react-angular-docker-dubai-location-at-igt-solutions-2621310388?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=6EGPmUzR72sU%2F3ud7a%2F8Yw%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FULL STACK DEVELOPER</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-digital-squad-australia-2631931145?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=tqrDyqN4gk829A%2B5xcFKoQ%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Frontend Developer - HTML/CSS/React/Angular/Docker - Dubai Location</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/frontend-developer-html-css-react-angular-docker-dubai-location-at-igt-solutions-2612041379?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=o1Bi2%2BZtKGOBS%2BjvRSLKUw%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FRONTEND DEVELOPER UAE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/frontend-developer-uae-at-vaimo-2623638020?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=DIIycXUerDHldoNPbScO1g%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-engineer-at-klanik-2606377905?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=gynVkqjgE5MOiSmG6BQmZw%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Frontend Developer - HTML/CSS/Docker/React/Angular - DUBAI Location</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3 weeks ago</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/frontend-developer-html-css-docker-react-angular-dubai-location-at-igt-solutions-2594480212?refId=aq9LGKCrDohwRlbxJgPGhQ%3D%3D&amp;trackingId=5GeD0QL2DpoYmV%2BgbpjQ2w%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,66 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freelance Project\job-scraper-backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B61C8-3CE8-4069-B6A2-3E239A91151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>PostDate</t>
-  </si>
-  <si>
-    <t>JobUrl</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,32 +48,91 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,33 +420,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>JobTitle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PostDate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>JobUrl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Back End Developer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-aspire-technology-2649450278?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=%2BnwzUngfp1Zp70DAA2QCPQ%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-forefront-talent-2653706644?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=Y9VxnJ%2FmtIgQd%2BcX9LXj0Q%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Back End Developer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-stella-stays-2567470812?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=0x0s%2Bnz%2FTOGKDHjHnfbEdw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/web-developer-at-techcarrot-2652078433?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=jhB6AZw9fCdiFvSBpSMM9Q%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Junior/Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/junior-senior-software-engineer-at-mackenzie-jones-middle-east-2641356427?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=rIc%2B4qvlYzW1JfDCnC4WIQ%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>JUNIOR DEVELOPER - Dubai or Remote</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2 months ago</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/junior-developer-dubai-or-remote-at-cobblestone-energy-2616837676?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=M4oRO9369sADp9UcMOwdIA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Junior Developer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/junior-developer-at-chalhoub-group-2609224500?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=UJI5wqyjIE2u7du2%2FAa6gQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Blockchain Developer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/blockchain-developer-at-vietne-2640551460?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=9FAMSnZS9s3DRxpanBylGA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3 weeks ago</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/full-stack-engineer-at-klanik-2606377905?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=N5lxZQte8zYZM%2B0ijjKnTQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Back End Developer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-aspire-mena-2630813687?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=JLOeeqnuP3rRU%2F4vmZTd8g%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,207 +468,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Back End Developer</t>
+          <t>Backend Developer - Laravel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Avrioc Technologies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Abu Dhabi, UAE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25 days ago</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-aspire-technology-2649450278?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=%2BnwzUngfp1Zp70DAA2QCPQ%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-developer-at-forefront-talent-2653706644?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=Y9VxnJ%2FmtIgQd%2BcX9LXj0Q%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Back End Developer</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-stella-stays-2567470812?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=0x0s%2Bnz%2FTOGKDHjHnfbEdw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/web-developer-at-techcarrot-2652078433?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=jhB6AZw9fCdiFvSBpSMM9Q%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Junior/Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5 days ago</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/junior-senior-software-engineer-at-mackenzie-jones-middle-east-2641356427?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=rIc%2B4qvlYzW1JfDCnC4WIQ%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JUNIOR DEVELOPER - Dubai or Remote</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Dubai, Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2 months ago</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/junior-developer-dubai-or-remote-at-cobblestone-energy-2616837676?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=M4oRO9369sADp9UcMOwdIA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Junior Developer</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4 weeks ago</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/junior-developer-at-chalhoub-group-2609224500?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=UJI5wqyjIE2u7du2%2FAa6gQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Blockchain Developer</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1 week ago</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/blockchain-developer-at-vietne-2640551460?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=9FAMSnZS9s3DRxpanBylGA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Full Stack Engineer</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3 weeks ago</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/full-stack-engineer-at-klanik-2606377905?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=N5lxZQte8zYZM%2B0ijjKnTQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Back End Developer</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2 weeks ago</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://ae.linkedin.com/jobs/view/back-end-developer-at-aspire-mena-2630813687?refId=cbG1tl53SnUZEbHG9ONbGQ%3D%3D&amp;trackingId=JLOeeqnuP3rRU%2F4vmZTd8g%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://www.gulftalent.com/uae/jobs/backend-developer-laravel-321947</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,28 +468,495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Backend Developer - Laravel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Avrioc Technologies</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Abu Dhabi, UAE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25 days ago</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.gulftalent.com/uae/jobs/backend-developer-laravel-321947</t>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-at-3db-events-2672870467?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=z%2FdQXLtwy9Ww%2BN9L6bEEiQ%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/senior-project-manager-at-mashreq-bank-2661664425?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=Vie%2FuJLL%2FOTybROPRC9Pqg%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-at-sana-commerce-2672381177?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=ad9YZ53J04vbiwH5%2BUPXBA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-at-talents-uae-2669842845?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=Zdn5QfCkeRBY6CCIqD86RA%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-at-relience-ltd-2660025196?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=Mor8Owtv7tz7n2205JU0vw%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/senior-project-manager-at-turner-townsend-2667149378?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=nUSNuvGOhNG6uOdlY8DHig%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Freelance Project Manager</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/freelance-project-manager-at-prolab-digital-llc-2667910346?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=Y%2Bhph4lhnfpCyrwCEkAkAQ%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-at-sign-works-llc-2655714103?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=JuAtESQa7WwLycNHTTkHzw%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-at-elsewedy-electric-2640119108?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=vViY37keANgTLM537puG%2Bg%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/sr-project-manager-at-epsilon-global-consulting-2629795302?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=tZ%2F%2BFxYntDPUtGcDMpV4Rg%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Project Manager - Fitout ( Talent Pool)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-fitout-talent-pool-at-al-tayer-group-2667969953?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=zBlXWKyUeegLp9aeUSgePw%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brand Project Manager</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3 weeks ago</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/brand-project-manager-at-noon-2644357673?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=ifezvT9WQ2zL%2B9ZRDnF%2Btw%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Project Manager - Pavilion (Expo)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-pavilion-expo-at-world-security-2668921191?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=rjKJp06bTArPYOeKUYGUAw%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Project Manager (Change &amp; Transformation) - 1 year contract</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-change-transformation-1-year-contract-at-commercial-bank-international-2631901808?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=yutsJnY5Z%2BXKiLCdy4LYGw%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Head of Project Management</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/head-of-project-management-at-encore-2656362283?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=cROBuarnmkEXbQw2KbGcvg%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Project Manager - 6 mths contract</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1 week ago</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-6-mths-contract-at-manpowergroup-middle-east-2662326668?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=TLfuvvRxY%2B9jAullaA%2B%2B4g%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/senior-project-manager-at-hantec-markets-2655474696?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=m1UsVaYW7r0%2BjyEXWiRWdw%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IT Manager - Projects / Events</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/it-manager-projects-events-at-falcon-and-associates-2667213702?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=Tu1UzYIXsjzh0aVjxSbpIg%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Innovation Project Manager</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/innovation-project-manager-at-dnata-2666301640?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=bgYKmmUumYFHJbS9Gi4dtw%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Technical Project Manager (Location-Based)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/technical-project-manager-location-based-at-magnopus-2655085650?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=7EN2M31T8kDc4Vu3WXV9RA%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Senior Project Manager - Hotels (FE-PM)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/senior-project-manager-hotels-fe-pm-at-fifthedge-construction-recruitment-intelligence-2672670876?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=wMoWfNN0vSEq6hfYocyUEw%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Project Manager - IT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1 month ago</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-it-at-majid-al-futtaim-2658682541?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=Ex5Y3Uv91M2XETYWeTJEsw%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Senior Manager, New Solutions</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/senior-manager-new-solutions-at-visa-2666391375?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=zQrHnnvWj4x8fR1dxVQ5tA%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Dubai, Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://ae.linkedin.com/jobs/view/project-manager-at-servion-global-solutions-2659556427?refId=cWmE%2B0M8h1r2qi3LmtQJtg%3D%3D&amp;trackingId=JibrnQFBhga8mRrgGoejyQ%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>
